--- a/BIX/DMS/IS-20320 UAT3 result.xlsx
+++ b/BIX/DMS/IS-20320 UAT3 result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s994149\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6870ABD7-C9A1-4097-A5FF-DDAA1B8F86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD6D7BB-CF50-433B-A76E-64B35D506F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="3170" windowWidth="28800" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="371">
   <si>
     <t>DN3000024084</t>
   </si>
@@ -1129,6 +1129,15 @@
   </si>
   <si>
     <t>DENTAL</t>
+  </si>
+  <si>
+    <t>FSAD</t>
+  </si>
+  <si>
+    <t>FSD</t>
+  </si>
+  <si>
+    <t>FSM</t>
   </si>
 </sst>
 </file>
@@ -1447,15 +1456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T234"/>
+  <dimension ref="A2:W234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="AC215" sqref="AC215"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="L203" sqref="L203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1505,19 +1518,22 @@
         <v>26</v>
       </c>
       <c r="Q2">
+        <v>690290</v>
+      </c>
+      <c r="T2">
         <v>0.15</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>117.65</v>
       </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1567,19 +1583,22 @@
         <v>29</v>
       </c>
       <c r="Q3">
+        <v>572651</v>
+      </c>
+      <c r="T3">
         <v>0.18</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>15.14</v>
       </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2100308283</v>
       </c>
@@ -1629,19 +1648,22 @@
         <v>8</v>
       </c>
       <c r="Q4">
+        <v>572651</v>
+      </c>
+      <c r="T4">
         <v>0.18</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>12.03</v>
       </c>
-      <c r="S4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2100308283</v>
       </c>
@@ -1691,19 +1713,22 @@
         <v>12</v>
       </c>
       <c r="Q5">
+        <v>572651</v>
+      </c>
+      <c r="T5">
         <v>0.18</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>-36.83</v>
       </c>
-      <c r="S5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1753,19 +1778,22 @@
         <v>15</v>
       </c>
       <c r="Q6">
+        <v>690290</v>
+      </c>
+      <c r="T6">
         <v>0.15</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>-16.670000000000002</v>
       </c>
-      <c r="S6" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1815,27 +1843,30 @@
         <v>18</v>
       </c>
       <c r="Q7">
+        <v>585018</v>
+      </c>
+      <c r="T7">
         <v>0.18</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>12.16</v>
       </c>
-      <c r="S7" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2100374205</v>
+      <c r="V7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>631282</v>
+        <v>572651</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -1850,54 +1881,57 @@
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>44830</v>
+        <v>44832</v>
       </c>
       <c r="I8" s="1">
-        <v>44692</v>
+        <v>44694</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8">
-        <v>79.2</v>
+        <v>76.5</v>
       </c>
       <c r="M8">
-        <v>84.74</v>
+        <v>81.86</v>
       </c>
       <c r="N8">
-        <v>79.2</v>
+        <v>76.5</v>
       </c>
       <c r="O8" t="s">
         <v>7</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="Q8">
+        <v>572651</v>
+      </c>
+      <c r="T8">
         <v>0.18</v>
       </c>
-      <c r="R8">
-        <v>14.26</v>
-      </c>
-      <c r="S8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>27</v>
+      <c r="U8">
+        <v>13.77</v>
+      </c>
+      <c r="V8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2100374205</v>
       </c>
       <c r="B9">
-        <v>572651</v>
+        <v>631282</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -1912,46 +1946,49 @@
         <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>44832</v>
+        <v>44830</v>
       </c>
       <c r="I9" s="1">
-        <v>44694</v>
+        <v>44692</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9">
-        <v>76.5</v>
+        <v>79.2</v>
       </c>
       <c r="M9">
-        <v>81.86</v>
+        <v>84.74</v>
       </c>
       <c r="N9">
-        <v>76.5</v>
+        <v>79.2</v>
       </c>
       <c r="O9" t="s">
         <v>7</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="Q9">
+        <v>631282</v>
+      </c>
+      <c r="T9">
         <v>0.18</v>
       </c>
-      <c r="R9">
-        <v>13.77</v>
-      </c>
-      <c r="S9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9">
+        <v>14.26</v>
+      </c>
+      <c r="V9" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2100393111</v>
       </c>
@@ -2001,19 +2038,22 @@
         <v>23</v>
       </c>
       <c r="Q10">
+        <v>589361</v>
+      </c>
+      <c r="T10">
         <v>0.18</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>17.29</v>
       </c>
-      <c r="S10" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2063,19 +2103,22 @@
         <v>53</v>
       </c>
       <c r="Q11">
+        <v>529154</v>
+      </c>
+      <c r="T11">
         <v>0.18</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>20.170000000000002</v>
       </c>
-      <c r="S11" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2100588210</v>
       </c>
@@ -2125,19 +2168,22 @@
         <v>339</v>
       </c>
       <c r="Q12">
+        <v>615292</v>
+      </c>
+      <c r="T12">
         <v>0.18</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <v>16.079999999999998</v>
       </c>
-      <c r="S12" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V12" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2100588210</v>
       </c>
@@ -2187,19 +2233,22 @@
         <v>237</v>
       </c>
       <c r="Q13">
+        <v>615292</v>
+      </c>
+      <c r="T13">
         <v>0.18</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <v>74.52</v>
       </c>
-      <c r="S13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2100584730</v>
       </c>
@@ -2249,19 +2298,22 @@
         <v>320</v>
       </c>
       <c r="Q14">
+        <v>587601</v>
+      </c>
+      <c r="T14">
         <v>0.18</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <v>17.510000000000002</v>
       </c>
-      <c r="S14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V14" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2100493170</v>
       </c>
@@ -2311,19 +2363,22 @@
         <v>327</v>
       </c>
       <c r="Q15">
+        <v>572208</v>
+      </c>
+      <c r="T15">
         <v>0.2</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <v>-5.01</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>45</v>
       </c>
-      <c r="T15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>321</v>
       </c>
@@ -2373,19 +2428,22 @@
         <v>347</v>
       </c>
       <c r="Q16">
+        <v>642139</v>
+      </c>
+      <c r="T16">
         <v>0.18</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <v>46.08</v>
       </c>
-      <c r="S16" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V16" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2435,19 +2493,22 @@
         <v>44</v>
       </c>
       <c r="Q17">
+        <v>690672</v>
+      </c>
+      <c r="T17">
         <v>0.18</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <v>49.68</v>
       </c>
-      <c r="S17" t="s">
+      <c r="V17" t="s">
         <v>45</v>
       </c>
-      <c r="T17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>243</v>
       </c>
@@ -2497,19 +2558,22 @@
         <v>245</v>
       </c>
       <c r="Q18">
+        <v>571908</v>
+      </c>
+      <c r="T18">
         <v>0.18</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>-149.04</v>
       </c>
-      <c r="S18" t="s">
+      <c r="V18" t="s">
         <v>45</v>
       </c>
-      <c r="T18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2100493170</v>
       </c>
@@ -2559,19 +2623,22 @@
         <v>242</v>
       </c>
       <c r="Q19">
+        <v>572208</v>
+      </c>
+      <c r="T19">
         <v>0.2</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>-72.87</v>
       </c>
-      <c r="S19" t="s">
+      <c r="V19" t="s">
         <v>45</v>
       </c>
-      <c r="T19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>243</v>
       </c>
@@ -2621,19 +2688,22 @@
         <v>356</v>
       </c>
       <c r="Q20">
+        <v>571908</v>
+      </c>
+      <c r="T20">
         <v>0.18</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>149.04</v>
       </c>
-      <c r="S20" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V20" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2100493170</v>
       </c>
@@ -2683,19 +2753,22 @@
         <v>331</v>
       </c>
       <c r="Q21">
+        <v>572208</v>
+      </c>
+      <c r="T21">
         <v>0.2</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <v>-4.5199999999999996</v>
       </c>
-      <c r="S21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2100584730</v>
       </c>
@@ -2745,19 +2818,22 @@
         <v>354</v>
       </c>
       <c r="Q22">
+        <v>587601</v>
+      </c>
+      <c r="T22">
         <v>0.18</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <v>24.84</v>
       </c>
-      <c r="S22" t="s">
-        <v>9</v>
-      </c>
-      <c r="T22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V22" t="s">
+        <v>9</v>
+      </c>
+      <c r="W22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2807,19 +2883,22 @@
         <v>329</v>
       </c>
       <c r="Q23">
+        <v>690672</v>
+      </c>
+      <c r="T23">
         <v>0.18</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <v>12.22</v>
       </c>
-      <c r="S23" t="s">
+      <c r="V23" t="s">
         <v>45</v>
       </c>
-      <c r="T23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>238</v>
       </c>
@@ -2869,19 +2948,22 @@
         <v>345</v>
       </c>
       <c r="Q24">
+        <v>614904</v>
+      </c>
+      <c r="T24">
         <v>0.18</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <v>42.43</v>
       </c>
-      <c r="S24" t="s">
-        <v>9</v>
-      </c>
-      <c r="T24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V24" t="s">
+        <v>9</v>
+      </c>
+      <c r="W24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2100308283</v>
       </c>
@@ -2931,19 +3013,22 @@
         <v>99</v>
       </c>
       <c r="Q25">
+        <v>572651</v>
+      </c>
+      <c r="T25">
         <v>0.18</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <v>-6.47</v>
       </c>
-      <c r="S25" t="s">
-        <v>9</v>
-      </c>
-      <c r="T25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V25" t="s">
+        <v>9</v>
+      </c>
+      <c r="W25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2100308283</v>
       </c>
@@ -2993,19 +3078,22 @@
         <v>107</v>
       </c>
       <c r="Q26">
+        <v>572651</v>
+      </c>
+      <c r="T26">
         <v>0.18</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>-19.29</v>
       </c>
-      <c r="S26" t="s">
-        <v>9</v>
-      </c>
-      <c r="T26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V26" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2100308283</v>
       </c>
@@ -3055,19 +3143,22 @@
         <v>101</v>
       </c>
       <c r="Q27">
+        <v>572651</v>
+      </c>
+      <c r="T27">
         <v>0.18</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>12.36</v>
       </c>
-      <c r="S27" t="s">
-        <v>9</v>
-      </c>
-      <c r="T27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V27" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -3117,19 +3208,22 @@
         <v>103</v>
       </c>
       <c r="Q28">
+        <v>585018</v>
+      </c>
+      <c r="T28">
         <v>0.18</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>-11.05</v>
       </c>
-      <c r="S28" t="s">
-        <v>9</v>
-      </c>
-      <c r="T28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V28" t="s">
+        <v>9</v>
+      </c>
+      <c r="W28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3179,19 +3273,22 @@
         <v>105</v>
       </c>
       <c r="Q29">
+        <v>585018</v>
+      </c>
+      <c r="T29">
         <v>0.18</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>11</v>
       </c>
-      <c r="S29" t="s">
-        <v>9</v>
-      </c>
-      <c r="T29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V29" t="s">
+        <v>9</v>
+      </c>
+      <c r="W29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3241,19 +3338,22 @@
         <v>109</v>
       </c>
       <c r="Q30">
+        <v>690290</v>
+      </c>
+      <c r="T30">
         <v>0.15</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>-14.69</v>
       </c>
-      <c r="S30" t="s">
-        <v>9</v>
-      </c>
-      <c r="T30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V30" t="s">
+        <v>9</v>
+      </c>
+      <c r="W30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -3303,19 +3403,22 @@
         <v>111</v>
       </c>
       <c r="Q31">
+        <v>519575</v>
+      </c>
+      <c r="T31">
         <v>0.18</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>10.89</v>
       </c>
-      <c r="S31" t="s">
-        <v>9</v>
-      </c>
-      <c r="T31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V31" t="s">
+        <v>9</v>
+      </c>
+      <c r="W31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2100393111</v>
       </c>
@@ -3365,19 +3468,22 @@
         <v>113</v>
       </c>
       <c r="Q32">
+        <v>589361</v>
+      </c>
+      <c r="T32">
         <v>0.18</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>-12.99</v>
       </c>
-      <c r="S32" t="s">
-        <v>9</v>
-      </c>
-      <c r="T32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V32" t="s">
+        <v>9</v>
+      </c>
+      <c r="W32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3427,19 +3533,22 @@
         <v>56</v>
       </c>
       <c r="Q33">
+        <v>651018</v>
+      </c>
+      <c r="T33">
         <v>0.18</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>20.170000000000002</v>
       </c>
-      <c r="S33" t="s">
-        <v>9</v>
-      </c>
-      <c r="T33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2000186712</v>
       </c>
@@ -3489,30 +3598,33 @@
         <v>255</v>
       </c>
       <c r="Q34">
+        <v>662754</v>
+      </c>
+      <c r="T34">
         <v>0.2</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>59.31</v>
       </c>
-      <c r="S34" t="s">
-        <v>9</v>
-      </c>
-      <c r="T34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V34" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>691011</v>
+        <v>690290</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -3527,54 +3639,57 @@
         <v>44916</v>
       </c>
       <c r="I35" s="1">
-        <v>44814</v>
+        <v>44716</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K35" t="s">
         <v>6</v>
       </c>
       <c r="L35">
-        <v>720</v>
+        <v>82.89</v>
       </c>
       <c r="M35">
-        <v>770.4</v>
+        <v>88.69</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>82.89</v>
       </c>
       <c r="O35" t="s">
         <v>7</v>
       </c>
       <c r="P35" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="Q35">
-        <v>0.18</v>
-      </c>
-      <c r="R35">
-        <v>129.6</v>
-      </c>
-      <c r="S35" t="s">
-        <v>9</v>
-      </c>
-      <c r="T35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+        <v>690290</v>
+      </c>
+      <c r="T35">
+        <v>0.15</v>
+      </c>
+      <c r="U35">
+        <v>12.43</v>
+      </c>
+      <c r="V35" t="s">
+        <v>9</v>
+      </c>
+      <c r="W35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B36">
-        <v>690290</v>
+        <v>691011</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -3589,43 +3704,46 @@
         <v>44916</v>
       </c>
       <c r="I36" s="1">
-        <v>44716</v>
+        <v>44814</v>
       </c>
       <c r="J36" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K36" t="s">
         <v>6</v>
       </c>
       <c r="L36">
-        <v>82.89</v>
+        <v>720</v>
       </c>
       <c r="M36">
-        <v>88.69</v>
+        <v>770.4</v>
       </c>
       <c r="N36">
-        <v>82.89</v>
+        <v>0</v>
       </c>
       <c r="O36" t="s">
         <v>7</v>
       </c>
       <c r="P36" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="Q36">
-        <v>0.15</v>
-      </c>
-      <c r="R36">
-        <v>12.43</v>
-      </c>
-      <c r="S36" t="s">
-        <v>9</v>
-      </c>
-      <c r="T36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+        <v>691011</v>
+      </c>
+      <c r="T36">
+        <v>0.18</v>
+      </c>
+      <c r="U36">
+        <v>129.6</v>
+      </c>
+      <c r="V36" t="s">
+        <v>9</v>
+      </c>
+      <c r="W36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2000111108</v>
       </c>
@@ -3675,19 +3793,22 @@
         <v>121</v>
       </c>
       <c r="Q37">
+        <v>588695</v>
+      </c>
+      <c r="T37">
         <v>0.2</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>15.13</v>
       </c>
-      <c r="S37" t="s">
-        <v>9</v>
-      </c>
-      <c r="T37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V37" t="s">
+        <v>9</v>
+      </c>
+      <c r="W37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -3737,19 +3858,22 @@
         <v>62</v>
       </c>
       <c r="Q38">
+        <v>820298</v>
+      </c>
+      <c r="T38">
         <v>0.15</v>
       </c>
-      <c r="R38">
+      <c r="U38">
         <v>50.42</v>
       </c>
-      <c r="S38" t="s">
-        <v>9</v>
-      </c>
-      <c r="T38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V38" t="s">
+        <v>9</v>
+      </c>
+      <c r="W38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2100308283</v>
       </c>
@@ -3799,19 +3923,22 @@
         <v>123</v>
       </c>
       <c r="Q39">
+        <v>572651</v>
+      </c>
+      <c r="T39">
         <v>0.18</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <v>-4.41</v>
       </c>
-      <c r="S39" t="s">
-        <v>9</v>
-      </c>
-      <c r="T39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V39" t="s">
+        <v>9</v>
+      </c>
+      <c r="W39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2100308283</v>
       </c>
@@ -3861,19 +3988,22 @@
         <v>125</v>
       </c>
       <c r="Q40">
+        <v>572651</v>
+      </c>
+      <c r="T40">
         <v>0.18</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <v>5.91</v>
       </c>
-      <c r="S40" t="s">
-        <v>9</v>
-      </c>
-      <c r="T40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V40" t="s">
+        <v>9</v>
+      </c>
+      <c r="W40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2100374205</v>
       </c>
@@ -3923,19 +4053,22 @@
         <v>127</v>
       </c>
       <c r="Q41">
+        <v>631282</v>
+      </c>
+      <c r="T41">
         <v>0.18</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <v>8.23</v>
       </c>
-      <c r="S41" t="s">
-        <v>9</v>
-      </c>
-      <c r="T41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V41" t="s">
+        <v>9</v>
+      </c>
+      <c r="W41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3985,19 +4118,22 @@
         <v>129</v>
       </c>
       <c r="Q42">
+        <v>690290</v>
+      </c>
+      <c r="T42">
         <v>0.15</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <v>-11.42</v>
       </c>
-      <c r="S42" t="s">
-        <v>9</v>
-      </c>
-      <c r="T42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V42" t="s">
+        <v>9</v>
+      </c>
+      <c r="W42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -4047,19 +4183,22 @@
         <v>131</v>
       </c>
       <c r="Q43">
+        <v>572651</v>
+      </c>
+      <c r="T43">
         <v>0.18</v>
       </c>
-      <c r="R43">
+      <c r="U43">
         <v>9.2899999999999991</v>
       </c>
-      <c r="S43" t="s">
-        <v>9</v>
-      </c>
-      <c r="T43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -4109,19 +4248,22 @@
         <v>133</v>
       </c>
       <c r="Q44">
+        <v>820298</v>
+      </c>
+      <c r="T44">
         <v>0.15</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <v>-16.809999999999999</v>
       </c>
-      <c r="S44" t="s">
-        <v>9</v>
-      </c>
-      <c r="T44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V44" t="s">
+        <v>9</v>
+      </c>
+      <c r="W44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2100492842</v>
       </c>
@@ -4171,19 +4313,22 @@
         <v>257</v>
       </c>
       <c r="Q45">
+        <v>572460</v>
+      </c>
+      <c r="T45">
         <v>0.18</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <v>121.01</v>
       </c>
-      <c r="S45" t="s">
-        <v>9</v>
-      </c>
-      <c r="T45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V45" t="s">
+        <v>9</v>
+      </c>
+      <c r="W45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2100494846</v>
       </c>
@@ -4232,20 +4377,23 @@
       <c r="P46" t="s">
         <v>260</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" t="s">
+        <v>258</v>
+      </c>
+      <c r="T46">
         <v>0.15</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <v>948.51</v>
       </c>
-      <c r="S46" t="s">
-        <v>9</v>
-      </c>
-      <c r="T46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V46" t="s">
+        <v>9</v>
+      </c>
+      <c r="W46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2100494391</v>
       </c>
@@ -4295,19 +4443,22 @@
         <v>262</v>
       </c>
       <c r="Q47">
+        <v>691185</v>
+      </c>
+      <c r="T47">
         <v>0.18</v>
       </c>
-      <c r="R47">
+      <c r="U47">
         <v>43.93</v>
       </c>
-      <c r="S47" t="s">
-        <v>9</v>
-      </c>
-      <c r="T47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V47" t="s">
+        <v>9</v>
+      </c>
+      <c r="W47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2000111108</v>
       </c>
@@ -4357,19 +4508,22 @@
         <v>135</v>
       </c>
       <c r="Q48">
+        <v>588695</v>
+      </c>
+      <c r="T48">
         <v>0.2</v>
       </c>
-      <c r="R48">
+      <c r="U48">
         <v>15.13</v>
       </c>
-      <c r="S48" t="s">
-        <v>9</v>
-      </c>
-      <c r="T48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V48" t="s">
+        <v>9</v>
+      </c>
+      <c r="W48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2100496671</v>
       </c>
@@ -4419,19 +4573,22 @@
         <v>264</v>
       </c>
       <c r="Q49">
+        <v>581200</v>
+      </c>
+      <c r="T49">
         <v>0.18</v>
       </c>
-      <c r="R49">
+      <c r="U49">
         <v>80.680000000000007</v>
       </c>
-      <c r="S49" t="s">
-        <v>9</v>
-      </c>
-      <c r="T49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V49" t="s">
+        <v>9</v>
+      </c>
+      <c r="W49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2100393111</v>
       </c>
@@ -4481,19 +4638,22 @@
         <v>138</v>
       </c>
       <c r="Q50">
+        <v>589361</v>
+      </c>
+      <c r="T50">
         <v>0.18</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <v>-3.59</v>
       </c>
-      <c r="S50" t="s">
-        <v>9</v>
-      </c>
-      <c r="T50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V50" t="s">
+        <v>9</v>
+      </c>
+      <c r="W50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2100502129</v>
       </c>
@@ -4543,19 +4703,22 @@
         <v>266</v>
       </c>
       <c r="Q51">
+        <v>573168</v>
+      </c>
+      <c r="T51">
         <v>0.18</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <v>20.170000000000002</v>
       </c>
-      <c r="S51" t="s">
-        <v>9</v>
-      </c>
-      <c r="T51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V51" t="s">
+        <v>9</v>
+      </c>
+      <c r="W51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2100384149</v>
       </c>
@@ -4605,19 +4768,22 @@
         <v>140</v>
       </c>
       <c r="Q52">
+        <v>537946</v>
+      </c>
+      <c r="T52">
         <v>0.18</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <v>-20.170000000000002</v>
       </c>
-      <c r="S52" t="s">
-        <v>9</v>
-      </c>
-      <c r="T52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V52" t="s">
+        <v>9</v>
+      </c>
+      <c r="W52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2100308283</v>
       </c>
@@ -4667,19 +4833,22 @@
         <v>146</v>
       </c>
       <c r="Q53">
+        <v>572651</v>
+      </c>
+      <c r="T53">
         <v>0.18</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <v>-1.65</v>
       </c>
-      <c r="S53" t="s">
-        <v>9</v>
-      </c>
-      <c r="T53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V53" t="s">
+        <v>9</v>
+      </c>
+      <c r="W53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -4729,19 +4898,22 @@
         <v>144</v>
       </c>
       <c r="Q54">
+        <v>529154</v>
+      </c>
+      <c r="T54">
         <v>0.18</v>
       </c>
-      <c r="R54">
+      <c r="U54">
         <v>-5.25</v>
       </c>
-      <c r="S54" t="s">
-        <v>9</v>
-      </c>
-      <c r="T54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V54" t="s">
+        <v>9</v>
+      </c>
+      <c r="W54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2000186712</v>
       </c>
@@ -4791,19 +4963,22 @@
         <v>142</v>
       </c>
       <c r="Q55">
+        <v>662754</v>
+      </c>
+      <c r="T55">
         <v>0.2</v>
       </c>
-      <c r="R55">
+      <c r="U55">
         <v>7.91</v>
       </c>
-      <c r="S55" t="s">
-        <v>9</v>
-      </c>
-      <c r="T55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V55" t="s">
+        <v>9</v>
+      </c>
+      <c r="W55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2100496671</v>
       </c>
@@ -4853,19 +5028,22 @@
         <v>148</v>
       </c>
       <c r="Q56">
+        <v>581200</v>
+      </c>
+      <c r="T56">
         <v>0.18</v>
       </c>
-      <c r="R56">
+      <c r="U56">
         <v>-80.680000000000007</v>
       </c>
-      <c r="S56" t="s">
-        <v>9</v>
-      </c>
-      <c r="T56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V56" t="s">
+        <v>9</v>
+      </c>
+      <c r="W56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -4915,19 +5093,22 @@
         <v>150</v>
       </c>
       <c r="Q57">
+        <v>651018</v>
+      </c>
+      <c r="T57">
         <v>0.18</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <v>-10.220000000000001</v>
       </c>
-      <c r="S57" t="s">
-        <v>9</v>
-      </c>
-      <c r="T57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V57" t="s">
+        <v>9</v>
+      </c>
+      <c r="W57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2100384149</v>
       </c>
@@ -4977,19 +5158,25 @@
         <v>186</v>
       </c>
       <c r="Q58">
+        <v>537510</v>
+      </c>
+      <c r="R58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T58">
         <v>0.04</v>
       </c>
-      <c r="R58">
+      <c r="U58">
         <v>-4.03</v>
       </c>
-      <c r="S58" t="s">
-        <v>9</v>
-      </c>
-      <c r="T58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V58" t="s">
+        <v>9</v>
+      </c>
+      <c r="W58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2100384149</v>
       </c>
@@ -5039,19 +5226,25 @@
         <v>187</v>
       </c>
       <c r="Q59">
+        <v>537341</v>
+      </c>
+      <c r="R59" t="s">
+        <v>369</v>
+      </c>
+      <c r="T59">
         <v>0.03</v>
       </c>
-      <c r="R59">
+      <c r="U59">
         <v>-3.03</v>
       </c>
-      <c r="S59" t="s">
-        <v>9</v>
-      </c>
-      <c r="T59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V59" t="s">
+        <v>9</v>
+      </c>
+      <c r="W59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2100494391</v>
       </c>
@@ -5101,81 +5294,87 @@
         <v>152</v>
       </c>
       <c r="Q60">
+        <v>691185</v>
+      </c>
+      <c r="T60">
         <v>0.18</v>
       </c>
-      <c r="R60">
+      <c r="U60">
         <v>37.909999999999997</v>
       </c>
-      <c r="S60" t="s">
-        <v>9</v>
-      </c>
-      <c r="T60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V60" t="s">
+        <v>9</v>
+      </c>
+      <c r="W60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2100504669</v>
+        <v>2100492842</v>
       </c>
       <c r="B61">
-        <v>517632</v>
+        <v>572460</v>
       </c>
       <c r="C61" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="H61" s="1">
-        <v>45024</v>
+        <v>45017</v>
       </c>
       <c r="I61" s="1">
-        <v>44987</v>
+        <v>44931</v>
       </c>
       <c r="J61" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K61" t="s">
         <v>6</v>
       </c>
       <c r="L61">
-        <v>212</v>
+        <v>101.31</v>
       </c>
       <c r="M61">
-        <v>228.96</v>
+        <v>109.41</v>
       </c>
       <c r="N61">
-        <v>212</v>
+        <v>101.31</v>
       </c>
       <c r="O61" t="s">
         <v>7</v>
       </c>
       <c r="P61" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="Q61">
-        <v>0.15</v>
-      </c>
-      <c r="R61">
-        <v>31.8</v>
-      </c>
-      <c r="S61" t="s">
-        <v>9</v>
-      </c>
-      <c r="T61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+        <v>572460</v>
+      </c>
+      <c r="T61">
+        <v>0.18</v>
+      </c>
+      <c r="U61">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="V61" t="s">
+        <v>9</v>
+      </c>
+      <c r="W61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2100504669</v>
       </c>
@@ -5183,7 +5382,7 @@
         <v>517632</v>
       </c>
       <c r="C62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D62" t="s">
         <v>38</v>
@@ -5225,19 +5424,22 @@
         <v>271</v>
       </c>
       <c r="Q62">
+        <v>517632</v>
+      </c>
+      <c r="T62">
         <v>0.15</v>
       </c>
-      <c r="R62">
+      <c r="U62">
         <v>31.8</v>
       </c>
-      <c r="S62" t="s">
-        <v>9</v>
-      </c>
-      <c r="T62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V62" t="s">
+        <v>9</v>
+      </c>
+      <c r="W62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2100504669</v>
       </c>
@@ -5245,7 +5447,7 @@
         <v>517632</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D63" t="s">
         <v>38</v>
@@ -5284,22 +5486,25 @@
         <v>7</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q63">
+        <v>517632</v>
+      </c>
+      <c r="T63">
         <v>0.15</v>
       </c>
-      <c r="R63">
+      <c r="U63">
         <v>31.8</v>
       </c>
-      <c r="S63" t="s">
-        <v>9</v>
-      </c>
-      <c r="T63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V63" t="s">
+        <v>9</v>
+      </c>
+      <c r="W63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2100504669</v>
       </c>
@@ -5307,7 +5512,7 @@
         <v>517632</v>
       </c>
       <c r="C64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D64" t="s">
         <v>38</v>
@@ -5349,19 +5554,22 @@
         <v>273</v>
       </c>
       <c r="Q64">
+        <v>517632</v>
+      </c>
+      <c r="T64">
         <v>0.15</v>
       </c>
-      <c r="R64">
+      <c r="U64">
         <v>31.8</v>
       </c>
-      <c r="S64" t="s">
-        <v>9</v>
-      </c>
-      <c r="T64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V64" t="s">
+        <v>9</v>
+      </c>
+      <c r="W64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2100504669</v>
       </c>
@@ -5369,7 +5577,7 @@
         <v>517632</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
         <v>38</v>
@@ -5378,10 +5586,10 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="G65" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="H65" s="1">
         <v>45024</v>
@@ -5396,34 +5604,37 @@
         <v>6</v>
       </c>
       <c r="L65">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M65">
-        <v>220.32</v>
+        <v>228.96</v>
       </c>
       <c r="N65">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O65" t="s">
         <v>7</v>
       </c>
       <c r="P65" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q65">
-        <v>0.1</v>
-      </c>
-      <c r="R65">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="S65" t="s">
-        <v>9</v>
-      </c>
-      <c r="T65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+        <v>517632</v>
+      </c>
+      <c r="T65">
+        <v>0.15</v>
+      </c>
+      <c r="U65">
+        <v>31.8</v>
+      </c>
+      <c r="V65" t="s">
+        <v>9</v>
+      </c>
+      <c r="W65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2100504669</v>
       </c>
@@ -5431,7 +5642,7 @@
         <v>517632</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D66" t="s">
         <v>38</v>
@@ -5473,19 +5684,22 @@
         <v>271</v>
       </c>
       <c r="Q66">
+        <v>517632</v>
+      </c>
+      <c r="T66">
         <v>0.1</v>
       </c>
-      <c r="R66">
+      <c r="U66">
         <v>20.399999999999999</v>
       </c>
-      <c r="S66" t="s">
-        <v>9</v>
-      </c>
-      <c r="T66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V66" t="s">
+        <v>9</v>
+      </c>
+      <c r="W66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2100504669</v>
       </c>
@@ -5493,7 +5707,7 @@
         <v>517632</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D67" t="s">
         <v>38</v>
@@ -5532,22 +5746,25 @@
         <v>7</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q67">
+        <v>517632</v>
+      </c>
+      <c r="T67">
         <v>0.1</v>
       </c>
-      <c r="R67">
+      <c r="U67">
         <v>20.399999999999999</v>
       </c>
-      <c r="S67" t="s">
-        <v>9</v>
-      </c>
-      <c r="T67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V67" t="s">
+        <v>9</v>
+      </c>
+      <c r="W67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2100504669</v>
       </c>
@@ -5555,7 +5772,7 @@
         <v>517632</v>
       </c>
       <c r="C68" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D68" t="s">
         <v>38</v>
@@ -5597,19 +5814,22 @@
         <v>273</v>
       </c>
       <c r="Q68">
+        <v>517632</v>
+      </c>
+      <c r="T68">
         <v>0.1</v>
       </c>
-      <c r="R68">
+      <c r="U68">
         <v>20.399999999999999</v>
       </c>
-      <c r="S68" t="s">
-        <v>9</v>
-      </c>
-      <c r="T68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V68" t="s">
+        <v>9</v>
+      </c>
+      <c r="W68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2100504669</v>
       </c>
@@ -5617,7 +5837,7 @@
         <v>517632</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D69" t="s">
         <v>38</v>
@@ -5629,7 +5849,7 @@
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H69" s="1">
         <v>45024</v>
@@ -5644,34 +5864,37 @@
         <v>6</v>
       </c>
       <c r="L69">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="M69">
-        <v>50.76</v>
+        <v>220.32</v>
       </c>
       <c r="N69">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="O69" t="s">
         <v>7</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q69">
-        <v>0.15</v>
-      </c>
-      <c r="R69">
-        <v>7.05</v>
-      </c>
-      <c r="S69" t="s">
-        <v>9</v>
-      </c>
-      <c r="T69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+        <v>517632</v>
+      </c>
+      <c r="T69">
+        <v>0.1</v>
+      </c>
+      <c r="U69">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="V69" t="s">
+        <v>9</v>
+      </c>
+      <c r="W69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2100504669</v>
       </c>
@@ -5679,7 +5902,7 @@
         <v>517632</v>
       </c>
       <c r="C70" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D70" t="s">
         <v>38</v>
@@ -5721,19 +5944,22 @@
         <v>271</v>
       </c>
       <c r="Q70">
+        <v>517632</v>
+      </c>
+      <c r="T70">
         <v>0.15</v>
       </c>
-      <c r="R70">
+      <c r="U70">
         <v>7.05</v>
       </c>
-      <c r="S70" t="s">
-        <v>9</v>
-      </c>
-      <c r="T70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V70" t="s">
+        <v>9</v>
+      </c>
+      <c r="W70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2100504669</v>
       </c>
@@ -5741,7 +5967,7 @@
         <v>517632</v>
       </c>
       <c r="C71" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D71" t="s">
         <v>38</v>
@@ -5780,22 +6006,25 @@
         <v>7</v>
       </c>
       <c r="P71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q71">
+        <v>517632</v>
+      </c>
+      <c r="T71">
         <v>0.15</v>
       </c>
-      <c r="R71">
+      <c r="U71">
         <v>7.05</v>
       </c>
-      <c r="S71" t="s">
-        <v>9</v>
-      </c>
-      <c r="T71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V71" t="s">
+        <v>9</v>
+      </c>
+      <c r="W71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2100504669</v>
       </c>
@@ -5803,7 +6032,7 @@
         <v>517632</v>
       </c>
       <c r="C72" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D72" t="s">
         <v>38</v>
@@ -5845,143 +6074,152 @@
         <v>273</v>
       </c>
       <c r="Q72">
+        <v>517632</v>
+      </c>
+      <c r="T72">
         <v>0.15</v>
       </c>
-      <c r="R72">
+      <c r="U72">
         <v>7.05</v>
       </c>
-      <c r="S72" t="s">
-        <v>9</v>
-      </c>
-      <c r="T72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V72" t="s">
+        <v>9</v>
+      </c>
+      <c r="W72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73">
+        <v>2100504669</v>
+      </c>
+      <c r="B73">
+        <v>517632</v>
+      </c>
+      <c r="C73" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" t="s">
+        <v>274</v>
+      </c>
+      <c r="H73" s="1">
+        <v>45024</v>
+      </c>
+      <c r="I73" s="1">
+        <v>44987</v>
+      </c>
+      <c r="J73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73">
+        <v>47</v>
+      </c>
+      <c r="M73">
+        <v>50.76</v>
+      </c>
+      <c r="N73">
+        <v>47</v>
+      </c>
+      <c r="O73" t="s">
+        <v>7</v>
+      </c>
+      <c r="P73" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q73">
+        <v>517632</v>
+      </c>
+      <c r="T73">
+        <v>0.15</v>
+      </c>
+      <c r="U73">
+        <v>7.05</v>
+      </c>
+      <c r="V73" t="s">
+        <v>9</v>
+      </c>
+      <c r="W73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>2100346112</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>615123</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>153</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
         <v>3</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G74" t="s">
         <v>4</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H74" s="1">
         <v>45017</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I74" s="1">
         <v>44635</v>
       </c>
-      <c r="J73" t="s">
-        <v>5</v>
-      </c>
-      <c r="K73" t="s">
-        <v>6</v>
-      </c>
-      <c r="L73">
+      <c r="J74" t="s">
+        <v>5</v>
+      </c>
+      <c r="K74" t="s">
+        <v>6</v>
+      </c>
+      <c r="L74">
         <v>98.55</v>
       </c>
-      <c r="M73">
+      <c r="M74">
         <v>106.43</v>
       </c>
-      <c r="N73">
+      <c r="N74">
         <v>98.55</v>
       </c>
-      <c r="O73" t="s">
-        <v>7</v>
-      </c>
-      <c r="P73" t="s">
+      <c r="O74" t="s">
+        <v>7</v>
+      </c>
+      <c r="P74" t="s">
         <v>154</v>
       </c>
-      <c r="Q73">
+      <c r="Q74">
+        <v>615123</v>
+      </c>
+      <c r="T74">
         <v>0.18</v>
       </c>
-      <c r="R73">
+      <c r="U74">
         <v>17.739999999999998</v>
       </c>
-      <c r="S73" t="s">
-        <v>9</v>
-      </c>
-      <c r="T73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>2100504669</v>
-      </c>
-      <c r="B74">
-        <v>517632</v>
-      </c>
-      <c r="C74" t="s">
-        <v>270</v>
-      </c>
-      <c r="D74" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s">
-        <v>40</v>
-      </c>
-      <c r="G74" t="s">
-        <v>40</v>
-      </c>
-      <c r="H74" s="1">
-        <v>45024</v>
-      </c>
-      <c r="I74" s="1">
-        <v>44987</v>
-      </c>
-      <c r="J74" t="s">
-        <v>5</v>
-      </c>
-      <c r="K74" t="s">
-        <v>6</v>
-      </c>
-      <c r="L74">
-        <v>637</v>
-      </c>
-      <c r="M74">
-        <v>687.96</v>
-      </c>
-      <c r="N74">
-        <v>637</v>
-      </c>
-      <c r="O74" t="s">
-        <v>7</v>
-      </c>
-      <c r="P74" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q74">
-        <v>0.15</v>
-      </c>
-      <c r="R74">
-        <v>95.55</v>
-      </c>
-      <c r="S74" t="s">
-        <v>9</v>
-      </c>
-      <c r="T74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V74" t="s">
+        <v>9</v>
+      </c>
+      <c r="W74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2100504669</v>
       </c>
@@ -5989,7 +6227,7 @@
         <v>517632</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
@@ -6031,19 +6269,22 @@
         <v>271</v>
       </c>
       <c r="Q75">
+        <v>517632</v>
+      </c>
+      <c r="T75">
         <v>0.15</v>
       </c>
-      <c r="R75">
+      <c r="U75">
         <v>95.55</v>
       </c>
-      <c r="S75" t="s">
-        <v>9</v>
-      </c>
-      <c r="T75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V75" t="s">
+        <v>9</v>
+      </c>
+      <c r="W75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2100504669</v>
       </c>
@@ -6051,7 +6292,7 @@
         <v>517632</v>
       </c>
       <c r="C76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D76" t="s">
         <v>38</v>
@@ -6090,22 +6331,25 @@
         <v>7</v>
       </c>
       <c r="P76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q76">
+        <v>517632</v>
+      </c>
+      <c r="T76">
         <v>0.15</v>
       </c>
-      <c r="R76">
+      <c r="U76">
         <v>95.55</v>
       </c>
-      <c r="S76" t="s">
-        <v>9</v>
-      </c>
-      <c r="T76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V76" t="s">
+        <v>9</v>
+      </c>
+      <c r="W76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2100504669</v>
       </c>
@@ -6113,7 +6357,7 @@
         <v>517632</v>
       </c>
       <c r="C77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D77" t="s">
         <v>38</v>
@@ -6155,19 +6399,22 @@
         <v>273</v>
       </c>
       <c r="Q77">
+        <v>517632</v>
+      </c>
+      <c r="T77">
         <v>0.15</v>
       </c>
-      <c r="R77">
+      <c r="U77">
         <v>95.55</v>
       </c>
-      <c r="S77" t="s">
-        <v>9</v>
-      </c>
-      <c r="T77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V77" t="s">
+        <v>9</v>
+      </c>
+      <c r="W77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2100504669</v>
       </c>
@@ -6175,7 +6422,7 @@
         <v>517632</v>
       </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D78" t="s">
         <v>38</v>
@@ -6187,7 +6434,7 @@
         <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="H78" s="1">
         <v>45024</v>
@@ -6202,34 +6449,37 @@
         <v>6</v>
       </c>
       <c r="L78">
-        <v>29</v>
+        <v>637</v>
       </c>
       <c r="M78">
-        <v>31.32</v>
+        <v>687.96</v>
       </c>
       <c r="N78">
-        <v>29</v>
+        <v>637</v>
       </c>
       <c r="O78" t="s">
         <v>7</v>
       </c>
       <c r="P78" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q78">
+        <v>517632</v>
+      </c>
+      <c r="T78">
         <v>0.15</v>
       </c>
-      <c r="R78">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="S78" t="s">
-        <v>9</v>
-      </c>
-      <c r="T78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U78">
+        <v>95.55</v>
+      </c>
+      <c r="V78" t="s">
+        <v>9</v>
+      </c>
+      <c r="W78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2100504669</v>
       </c>
@@ -6237,7 +6487,7 @@
         <v>517632</v>
       </c>
       <c r="C79" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D79" t="s">
         <v>38</v>
@@ -6279,19 +6529,22 @@
         <v>271</v>
       </c>
       <c r="Q79">
+        <v>517632</v>
+      </c>
+      <c r="T79">
         <v>0.15</v>
       </c>
-      <c r="R79">
+      <c r="U79">
         <v>4.3499999999999996</v>
       </c>
-      <c r="S79" t="s">
-        <v>9</v>
-      </c>
-      <c r="T79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V79" t="s">
+        <v>9</v>
+      </c>
+      <c r="W79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2100504669</v>
       </c>
@@ -6299,7 +6552,7 @@
         <v>517632</v>
       </c>
       <c r="C80" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D80" t="s">
         <v>38</v>
@@ -6338,22 +6591,25 @@
         <v>7</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q80">
+        <v>517632</v>
+      </c>
+      <c r="T80">
         <v>0.15</v>
       </c>
-      <c r="R80">
+      <c r="U80">
         <v>4.3499999999999996</v>
       </c>
-      <c r="S80" t="s">
-        <v>9</v>
-      </c>
-      <c r="T80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V80" t="s">
+        <v>9</v>
+      </c>
+      <c r="W80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2100504669</v>
       </c>
@@ -6361,7 +6617,7 @@
         <v>517632</v>
       </c>
       <c r="C81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D81" t="s">
         <v>38</v>
@@ -6403,19 +6659,22 @@
         <v>273</v>
       </c>
       <c r="Q81">
+        <v>517632</v>
+      </c>
+      <c r="T81">
         <v>0.15</v>
       </c>
-      <c r="R81">
+      <c r="U81">
         <v>4.3499999999999996</v>
       </c>
-      <c r="S81" t="s">
-        <v>9</v>
-      </c>
-      <c r="T81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V81" t="s">
+        <v>9</v>
+      </c>
+      <c r="W81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2100504669</v>
       </c>
@@ -6423,7 +6682,7 @@
         <v>517632</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D82" t="s">
         <v>38</v>
@@ -6432,10 +6691,10 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="G82" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="H82" s="1">
         <v>45024</v>
@@ -6450,34 +6709,37 @@
         <v>6</v>
       </c>
       <c r="L82">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="M82">
-        <v>228.96</v>
+        <v>31.32</v>
       </c>
       <c r="N82">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="O82" t="s">
         <v>7</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q82">
+        <v>517632</v>
+      </c>
+      <c r="T82">
         <v>0.15</v>
       </c>
-      <c r="R82">
-        <v>31.8</v>
-      </c>
-      <c r="S82" t="s">
-        <v>9</v>
-      </c>
-      <c r="T82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U82">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="V82" t="s">
+        <v>9</v>
+      </c>
+      <c r="W82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2100504669</v>
       </c>
@@ -6485,7 +6747,7 @@
         <v>517632</v>
       </c>
       <c r="C83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D83" t="s">
         <v>38</v>
@@ -6527,19 +6789,22 @@
         <v>271</v>
       </c>
       <c r="Q83">
+        <v>517632</v>
+      </c>
+      <c r="T83">
         <v>0.15</v>
       </c>
-      <c r="R83">
+      <c r="U83">
         <v>31.8</v>
       </c>
-      <c r="S83" t="s">
-        <v>9</v>
-      </c>
-      <c r="T83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V83" t="s">
+        <v>9</v>
+      </c>
+      <c r="W83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2100504669</v>
       </c>
@@ -6547,7 +6812,7 @@
         <v>517632</v>
       </c>
       <c r="C84" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D84" t="s">
         <v>38</v>
@@ -6586,22 +6851,25 @@
         <v>7</v>
       </c>
       <c r="P84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q84">
+        <v>517632</v>
+      </c>
+      <c r="T84">
         <v>0.15</v>
       </c>
-      <c r="R84">
+      <c r="U84">
         <v>31.8</v>
       </c>
-      <c r="S84" t="s">
-        <v>9</v>
-      </c>
-      <c r="T84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V84" t="s">
+        <v>9</v>
+      </c>
+      <c r="W84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2100504669</v>
       </c>
@@ -6609,7 +6877,7 @@
         <v>517632</v>
       </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
         <v>38</v>
@@ -6651,19 +6919,22 @@
         <v>273</v>
       </c>
       <c r="Q85">
+        <v>517632</v>
+      </c>
+      <c r="T85">
         <v>0.15</v>
       </c>
-      <c r="R85">
+      <c r="U85">
         <v>31.8</v>
       </c>
-      <c r="S85" t="s">
-        <v>9</v>
-      </c>
-      <c r="T85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V85" t="s">
+        <v>9</v>
+      </c>
+      <c r="W85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2100504669</v>
       </c>
@@ -6671,7 +6942,7 @@
         <v>517632</v>
       </c>
       <c r="C86" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D86" t="s">
         <v>38</v>
@@ -6680,10 +6951,10 @@
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="G86" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="H86" s="1">
         <v>45024</v>
@@ -6698,34 +6969,37 @@
         <v>6</v>
       </c>
       <c r="L86">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="M86">
-        <v>311.04000000000002</v>
+        <v>228.96</v>
       </c>
       <c r="N86">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="O86" t="s">
         <v>7</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q86">
-        <v>0.1</v>
-      </c>
-      <c r="R86">
-        <v>28.8</v>
-      </c>
-      <c r="S86" t="s">
-        <v>9</v>
-      </c>
-      <c r="T86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+        <v>517632</v>
+      </c>
+      <c r="T86">
+        <v>0.15</v>
+      </c>
+      <c r="U86">
+        <v>31.8</v>
+      </c>
+      <c r="V86" t="s">
+        <v>9</v>
+      </c>
+      <c r="W86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2100504669</v>
       </c>
@@ -6733,7 +7007,7 @@
         <v>517632</v>
       </c>
       <c r="C87" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D87" t="s">
         <v>38</v>
@@ -6775,19 +7049,22 @@
         <v>271</v>
       </c>
       <c r="Q87">
+        <v>517632</v>
+      </c>
+      <c r="T87">
         <v>0.1</v>
       </c>
-      <c r="R87">
+      <c r="U87">
         <v>28.8</v>
       </c>
-      <c r="S87" t="s">
-        <v>9</v>
-      </c>
-      <c r="T87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V87" t="s">
+        <v>9</v>
+      </c>
+      <c r="W87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2100504669</v>
       </c>
@@ -6795,7 +7072,7 @@
         <v>517632</v>
       </c>
       <c r="C88" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D88" t="s">
         <v>38</v>
@@ -6834,22 +7111,25 @@
         <v>7</v>
       </c>
       <c r="P88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q88">
+        <v>517632</v>
+      </c>
+      <c r="T88">
         <v>0.1</v>
       </c>
-      <c r="R88">
+      <c r="U88">
         <v>28.8</v>
       </c>
-      <c r="S88" t="s">
-        <v>9</v>
-      </c>
-      <c r="T88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V88" t="s">
+        <v>9</v>
+      </c>
+      <c r="W88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2100504669</v>
       </c>
@@ -6857,7 +7137,7 @@
         <v>517632</v>
       </c>
       <c r="C89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D89" t="s">
         <v>38</v>
@@ -6899,19 +7179,22 @@
         <v>273</v>
       </c>
       <c r="Q89">
+        <v>517632</v>
+      </c>
+      <c r="T89">
         <v>0.1</v>
       </c>
-      <c r="R89">
+      <c r="U89">
         <v>28.8</v>
       </c>
-      <c r="S89" t="s">
-        <v>9</v>
-      </c>
-      <c r="T89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V89" t="s">
+        <v>9</v>
+      </c>
+      <c r="W89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2100504669</v>
       </c>
@@ -6919,7 +7202,7 @@
         <v>517632</v>
       </c>
       <c r="C90" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D90" t="s">
         <v>38</v>
@@ -6931,7 +7214,7 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H90" s="1">
         <v>45024</v>
@@ -6946,34 +7229,37 @@
         <v>6</v>
       </c>
       <c r="L90">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="M90">
-        <v>220.32</v>
+        <v>311.04000000000002</v>
       </c>
       <c r="N90">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c r="O90" t="s">
         <v>7</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q90">
+        <v>517632</v>
+      </c>
+      <c r="T90">
         <v>0.1</v>
       </c>
-      <c r="R90">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="S90" t="s">
-        <v>9</v>
-      </c>
-      <c r="T90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U90">
+        <v>28.8</v>
+      </c>
+      <c r="V90" t="s">
+        <v>9</v>
+      </c>
+      <c r="W90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2100504669</v>
       </c>
@@ -6981,7 +7267,7 @@
         <v>517632</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
         <v>38</v>
@@ -7023,19 +7309,22 @@
         <v>271</v>
       </c>
       <c r="Q91">
+        <v>517632</v>
+      </c>
+      <c r="T91">
         <v>0.1</v>
       </c>
-      <c r="R91">
+      <c r="U91">
         <v>20.399999999999999</v>
       </c>
-      <c r="S91" t="s">
-        <v>9</v>
-      </c>
-      <c r="T91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V91" t="s">
+        <v>9</v>
+      </c>
+      <c r="W91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2100504669</v>
       </c>
@@ -7043,7 +7332,7 @@
         <v>517632</v>
       </c>
       <c r="C92" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D92" t="s">
         <v>38</v>
@@ -7082,22 +7371,25 @@
         <v>7</v>
       </c>
       <c r="P92" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q92">
+        <v>517632</v>
+      </c>
+      <c r="T92">
         <v>0.1</v>
       </c>
-      <c r="R92">
+      <c r="U92">
         <v>20.399999999999999</v>
       </c>
-      <c r="S92" t="s">
-        <v>9</v>
-      </c>
-      <c r="T92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V92" t="s">
+        <v>9</v>
+      </c>
+      <c r="W92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2100504669</v>
       </c>
@@ -7105,7 +7397,7 @@
         <v>517632</v>
       </c>
       <c r="C93" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D93" t="s">
         <v>38</v>
@@ -7147,19 +7439,22 @@
         <v>273</v>
       </c>
       <c r="Q93">
+        <v>517632</v>
+      </c>
+      <c r="T93">
         <v>0.1</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <v>20.399999999999999</v>
       </c>
-      <c r="S93" t="s">
-        <v>9</v>
-      </c>
-      <c r="T93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V93" t="s">
+        <v>9</v>
+      </c>
+      <c r="W93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2100504669</v>
       </c>
@@ -7167,7 +7462,7 @@
         <v>517632</v>
       </c>
       <c r="C94" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
         <v>38</v>
@@ -7179,7 +7474,7 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="H94" s="1">
         <v>45024</v>
@@ -7194,34 +7489,37 @@
         <v>6</v>
       </c>
       <c r="L94">
-        <v>414</v>
+        <v>204</v>
       </c>
       <c r="M94">
-        <v>447.12</v>
+        <v>220.32</v>
       </c>
       <c r="N94">
-        <v>414</v>
+        <v>204</v>
       </c>
       <c r="O94" t="s">
         <v>7</v>
       </c>
       <c r="P94" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q94">
-        <v>0.15</v>
-      </c>
-      <c r="R94">
-        <v>62.1</v>
-      </c>
-      <c r="S94" t="s">
-        <v>9</v>
-      </c>
-      <c r="T94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+        <v>517632</v>
+      </c>
+      <c r="T94">
+        <v>0.1</v>
+      </c>
+      <c r="U94">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="V94" t="s">
+        <v>9</v>
+      </c>
+      <c r="W94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2100504669</v>
       </c>
@@ -7229,7 +7527,7 @@
         <v>517632</v>
       </c>
       <c r="C95" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" t="s">
         <v>38</v>
@@ -7271,19 +7569,22 @@
         <v>271</v>
       </c>
       <c r="Q95">
+        <v>517632</v>
+      </c>
+      <c r="T95">
         <v>0.15</v>
       </c>
-      <c r="R95">
+      <c r="U95">
         <v>62.1</v>
       </c>
-      <c r="S95" t="s">
-        <v>9</v>
-      </c>
-      <c r="T95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V95" t="s">
+        <v>9</v>
+      </c>
+      <c r="W95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2100504669</v>
       </c>
@@ -7291,7 +7592,7 @@
         <v>517632</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D96" t="s">
         <v>38</v>
@@ -7330,22 +7631,25 @@
         <v>7</v>
       </c>
       <c r="P96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q96">
+        <v>517632</v>
+      </c>
+      <c r="T96">
         <v>0.15</v>
       </c>
-      <c r="R96">
+      <c r="U96">
         <v>62.1</v>
       </c>
-      <c r="S96" t="s">
-        <v>9</v>
-      </c>
-      <c r="T96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V96" t="s">
+        <v>9</v>
+      </c>
+      <c r="W96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2100504669</v>
       </c>
@@ -7353,7 +7657,7 @@
         <v>517632</v>
       </c>
       <c r="C97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" t="s">
         <v>38</v>
@@ -7395,19 +7699,22 @@
         <v>273</v>
       </c>
       <c r="Q97">
+        <v>517632</v>
+      </c>
+      <c r="T97">
         <v>0.15</v>
       </c>
-      <c r="R97">
+      <c r="U97">
         <v>62.1</v>
       </c>
-      <c r="S97" t="s">
-        <v>9</v>
-      </c>
-      <c r="T97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V97" t="s">
+        <v>9</v>
+      </c>
+      <c r="W97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2100504669</v>
       </c>
@@ -7415,7 +7722,7 @@
         <v>517632</v>
       </c>
       <c r="C98" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
         <v>38</v>
@@ -7424,10 +7731,10 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="H98" s="1">
         <v>45024</v>
@@ -7442,34 +7749,37 @@
         <v>6</v>
       </c>
       <c r="L98">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="M98">
-        <v>228.96</v>
+        <v>447.12</v>
       </c>
       <c r="N98">
-        <v>212</v>
+        <v>414</v>
       </c>
       <c r="O98" t="s">
         <v>7</v>
       </c>
       <c r="P98" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q98">
+        <v>517632</v>
+      </c>
+      <c r="T98">
         <v>0.15</v>
       </c>
-      <c r="R98">
-        <v>31.8</v>
-      </c>
-      <c r="S98" t="s">
-        <v>9</v>
-      </c>
-      <c r="T98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U98">
+        <v>62.1</v>
+      </c>
+      <c r="V98" t="s">
+        <v>9</v>
+      </c>
+      <c r="W98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2100504669</v>
       </c>
@@ -7477,7 +7787,7 @@
         <v>517632</v>
       </c>
       <c r="C99" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" t="s">
         <v>38</v>
@@ -7519,19 +7829,22 @@
         <v>271</v>
       </c>
       <c r="Q99">
+        <v>517632</v>
+      </c>
+      <c r="T99">
         <v>0.15</v>
       </c>
-      <c r="R99">
+      <c r="U99">
         <v>31.8</v>
       </c>
-      <c r="S99" t="s">
-        <v>9</v>
-      </c>
-      <c r="T99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V99" t="s">
+        <v>9</v>
+      </c>
+      <c r="W99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2100504669</v>
       </c>
@@ -7539,7 +7852,7 @@
         <v>517632</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
         <v>38</v>
@@ -7578,22 +7891,25 @@
         <v>7</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q100">
+        <v>517632</v>
+      </c>
+      <c r="T100">
         <v>0.15</v>
       </c>
-      <c r="R100">
+      <c r="U100">
         <v>31.8</v>
       </c>
-      <c r="S100" t="s">
-        <v>9</v>
-      </c>
-      <c r="T100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V100" t="s">
+        <v>9</v>
+      </c>
+      <c r="W100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2100504669</v>
       </c>
@@ -7601,7 +7917,7 @@
         <v>517632</v>
       </c>
       <c r="C101" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D101" t="s">
         <v>38</v>
@@ -7643,81 +7959,87 @@
         <v>273</v>
       </c>
       <c r="Q101">
+        <v>517632</v>
+      </c>
+      <c r="T101">
         <v>0.15</v>
       </c>
-      <c r="R101">
+      <c r="U101">
         <v>31.8</v>
       </c>
-      <c r="S101" t="s">
-        <v>9</v>
-      </c>
-      <c r="T101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V101" t="s">
+        <v>9</v>
+      </c>
+      <c r="W101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>2100492842</v>
+        <v>2100504669</v>
       </c>
       <c r="B102">
-        <v>572460</v>
+        <v>517632</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="D102" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="G102" t="s">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="H102" s="1">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="I102" s="1">
-        <v>44931</v>
+        <v>44987</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K102" t="s">
         <v>6</v>
       </c>
       <c r="L102">
-        <v>101.31</v>
+        <v>212</v>
       </c>
       <c r="M102">
-        <v>109.41</v>
+        <v>228.96</v>
       </c>
       <c r="N102">
-        <v>101.31</v>
+        <v>212</v>
       </c>
       <c r="O102" t="s">
         <v>7</v>
       </c>
       <c r="P102" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="Q102">
-        <v>0.18</v>
-      </c>
-      <c r="R102">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="S102" t="s">
-        <v>9</v>
-      </c>
-      <c r="T102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+        <v>517632</v>
+      </c>
+      <c r="T102">
+        <v>0.15</v>
+      </c>
+      <c r="U102">
+        <v>31.8</v>
+      </c>
+      <c r="V102" t="s">
+        <v>9</v>
+      </c>
+      <c r="W102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2100504669</v>
       </c>
@@ -7767,19 +8089,22 @@
         <v>271</v>
       </c>
       <c r="Q103">
+        <v>517632</v>
+      </c>
+      <c r="T103">
         <v>0.1</v>
       </c>
-      <c r="R103">
+      <c r="U103">
         <v>20.399999999999999</v>
       </c>
-      <c r="S103" t="s">
-        <v>9</v>
-      </c>
-      <c r="T103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V103" t="s">
+        <v>9</v>
+      </c>
+      <c r="W103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2100504669</v>
       </c>
@@ -7829,19 +8154,22 @@
         <v>271</v>
       </c>
       <c r="Q104">
+        <v>517632</v>
+      </c>
+      <c r="T104">
         <v>0.1</v>
       </c>
-      <c r="R104">
+      <c r="U104">
         <v>20.399999999999999</v>
       </c>
-      <c r="S104" t="s">
-        <v>9</v>
-      </c>
-      <c r="T104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V104" t="s">
+        <v>9</v>
+      </c>
+      <c r="W104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2100504669</v>
       </c>
@@ -7891,19 +8219,22 @@
         <v>273</v>
       </c>
       <c r="Q105">
+        <v>517632</v>
+      </c>
+      <c r="T105">
         <v>0.1</v>
       </c>
-      <c r="R105">
+      <c r="U105">
         <v>20.399999999999999</v>
       </c>
-      <c r="S105" t="s">
-        <v>9</v>
-      </c>
-      <c r="T105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V105" t="s">
+        <v>9</v>
+      </c>
+      <c r="W105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2100504669</v>
       </c>
@@ -7953,19 +8284,22 @@
         <v>273</v>
       </c>
       <c r="Q106">
+        <v>517632</v>
+      </c>
+      <c r="T106">
         <v>0.1</v>
       </c>
-      <c r="R106">
+      <c r="U106">
         <v>20.399999999999999</v>
       </c>
-      <c r="S106" t="s">
-        <v>9</v>
-      </c>
-      <c r="T106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V106" t="s">
+        <v>9</v>
+      </c>
+      <c r="W106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2100504669</v>
       </c>
@@ -8015,19 +8349,22 @@
         <v>271</v>
       </c>
       <c r="Q107">
+        <v>517632</v>
+      </c>
+      <c r="T107">
         <v>0.15</v>
       </c>
-      <c r="R107">
+      <c r="U107">
         <v>64.2</v>
       </c>
-      <c r="S107" t="s">
-        <v>9</v>
-      </c>
-      <c r="T107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V107" t="s">
+        <v>9</v>
+      </c>
+      <c r="W107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2100504669</v>
       </c>
@@ -8077,19 +8414,22 @@
         <v>271</v>
       </c>
       <c r="Q108">
+        <v>517632</v>
+      </c>
+      <c r="T108">
         <v>0.15</v>
       </c>
-      <c r="R108">
+      <c r="U108">
         <v>64.2</v>
       </c>
-      <c r="S108" t="s">
-        <v>9</v>
-      </c>
-      <c r="T108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V108" t="s">
+        <v>9</v>
+      </c>
+      <c r="W108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2100504669</v>
       </c>
@@ -8139,19 +8479,22 @@
         <v>273</v>
       </c>
       <c r="Q109">
+        <v>517632</v>
+      </c>
+      <c r="T109">
         <v>0.15</v>
       </c>
-      <c r="R109">
+      <c r="U109">
         <v>64.2</v>
       </c>
-      <c r="S109" t="s">
-        <v>9</v>
-      </c>
-      <c r="T109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V109" t="s">
+        <v>9</v>
+      </c>
+      <c r="W109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2100504669</v>
       </c>
@@ -8201,19 +8544,22 @@
         <v>273</v>
       </c>
       <c r="Q110">
+        <v>517632</v>
+      </c>
+      <c r="T110">
         <v>0.15</v>
       </c>
-      <c r="R110">
+      <c r="U110">
         <v>64.2</v>
       </c>
-      <c r="S110" t="s">
-        <v>9</v>
-      </c>
-      <c r="T110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V110" t="s">
+        <v>9</v>
+      </c>
+      <c r="W110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2100504669</v>
       </c>
@@ -8263,19 +8609,22 @@
         <v>271</v>
       </c>
       <c r="Q111">
+        <v>517632</v>
+      </c>
+      <c r="T111">
         <v>0.1</v>
       </c>
-      <c r="R111">
+      <c r="U111">
         <v>28.8</v>
       </c>
-      <c r="S111" t="s">
-        <v>9</v>
-      </c>
-      <c r="T111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V111" t="s">
+        <v>9</v>
+      </c>
+      <c r="W111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2100504669</v>
       </c>
@@ -8325,19 +8674,22 @@
         <v>271</v>
       </c>
       <c r="Q112">
+        <v>517632</v>
+      </c>
+      <c r="T112">
         <v>0.1</v>
       </c>
-      <c r="R112">
+      <c r="U112">
         <v>28.8</v>
       </c>
-      <c r="S112" t="s">
-        <v>9</v>
-      </c>
-      <c r="T112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V112" t="s">
+        <v>9</v>
+      </c>
+      <c r="W112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2100504669</v>
       </c>
@@ -8387,19 +8739,22 @@
         <v>273</v>
       </c>
       <c r="Q113">
+        <v>517632</v>
+      </c>
+      <c r="T113">
         <v>0.1</v>
       </c>
-      <c r="R113">
+      <c r="U113">
         <v>28.8</v>
       </c>
-      <c r="S113" t="s">
-        <v>9</v>
-      </c>
-      <c r="T113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V113" t="s">
+        <v>9</v>
+      </c>
+      <c r="W113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2100504669</v>
       </c>
@@ -8449,19 +8804,22 @@
         <v>273</v>
       </c>
       <c r="Q114">
+        <v>517632</v>
+      </c>
+      <c r="T114">
         <v>0.1</v>
       </c>
-      <c r="R114">
+      <c r="U114">
         <v>28.8</v>
       </c>
-      <c r="S114" t="s">
-        <v>9</v>
-      </c>
-      <c r="T114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V114" t="s">
+        <v>9</v>
+      </c>
+      <c r="W114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2100504669</v>
       </c>
@@ -8511,19 +8869,22 @@
         <v>271</v>
       </c>
       <c r="Q115">
+        <v>517632</v>
+      </c>
+      <c r="T115">
         <v>0.1</v>
       </c>
-      <c r="R115">
+      <c r="U115">
         <v>28.8</v>
       </c>
-      <c r="S115" t="s">
-        <v>9</v>
-      </c>
-      <c r="T115" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V115" t="s">
+        <v>9</v>
+      </c>
+      <c r="W115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2100504669</v>
       </c>
@@ -8573,19 +8934,22 @@
         <v>271</v>
       </c>
       <c r="Q116">
+        <v>517632</v>
+      </c>
+      <c r="T116">
         <v>0.1</v>
       </c>
-      <c r="R116">
+      <c r="U116">
         <v>28.8</v>
       </c>
-      <c r="S116" t="s">
-        <v>9</v>
-      </c>
-      <c r="T116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V116" t="s">
+        <v>9</v>
+      </c>
+      <c r="W116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2100504669</v>
       </c>
@@ -8635,19 +8999,22 @@
         <v>273</v>
       </c>
       <c r="Q117">
+        <v>517632</v>
+      </c>
+      <c r="T117">
         <v>0.1</v>
       </c>
-      <c r="R117">
+      <c r="U117">
         <v>28.8</v>
       </c>
-      <c r="S117" t="s">
-        <v>9</v>
-      </c>
-      <c r="T117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V117" t="s">
+        <v>9</v>
+      </c>
+      <c r="W117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2100504669</v>
       </c>
@@ -8697,19 +9064,22 @@
         <v>273</v>
       </c>
       <c r="Q118">
+        <v>517632</v>
+      </c>
+      <c r="T118">
         <v>0.1</v>
       </c>
-      <c r="R118">
+      <c r="U118">
         <v>28.8</v>
       </c>
-      <c r="S118" t="s">
-        <v>9</v>
-      </c>
-      <c r="T118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V118" t="s">
+        <v>9</v>
+      </c>
+      <c r="W118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2100504669</v>
       </c>
@@ -8759,19 +9129,22 @@
         <v>271</v>
       </c>
       <c r="Q119">
+        <v>517632</v>
+      </c>
+      <c r="T119">
         <v>0.15</v>
       </c>
-      <c r="R119">
+      <c r="U119">
         <v>4.6500000000000004</v>
       </c>
-      <c r="S119" t="s">
-        <v>9</v>
-      </c>
-      <c r="T119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V119" t="s">
+        <v>9</v>
+      </c>
+      <c r="W119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2100504669</v>
       </c>
@@ -8821,19 +9194,22 @@
         <v>271</v>
       </c>
       <c r="Q120">
+        <v>517632</v>
+      </c>
+      <c r="T120">
         <v>0.15</v>
       </c>
-      <c r="R120">
+      <c r="U120">
         <v>4.6500000000000004</v>
       </c>
-      <c r="S120" t="s">
-        <v>9</v>
-      </c>
-      <c r="T120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V120" t="s">
+        <v>9</v>
+      </c>
+      <c r="W120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2100504669</v>
       </c>
@@ -8883,19 +9259,22 @@
         <v>273</v>
       </c>
       <c r="Q121">
+        <v>517632</v>
+      </c>
+      <c r="T121">
         <v>0.15</v>
       </c>
-      <c r="R121">
+      <c r="U121">
         <v>4.6500000000000004</v>
       </c>
-      <c r="S121" t="s">
-        <v>9</v>
-      </c>
-      <c r="T121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V121" t="s">
+        <v>9</v>
+      </c>
+      <c r="W121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2100504669</v>
       </c>
@@ -8945,19 +9324,22 @@
         <v>273</v>
       </c>
       <c r="Q122">
+        <v>517632</v>
+      </c>
+      <c r="T122">
         <v>0.15</v>
       </c>
-      <c r="R122">
+      <c r="U122">
         <v>4.6500000000000004</v>
       </c>
-      <c r="S122" t="s">
-        <v>9</v>
-      </c>
-      <c r="T122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V122" t="s">
+        <v>9</v>
+      </c>
+      <c r="W122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -9007,19 +9389,22 @@
         <v>161</v>
       </c>
       <c r="Q123">
+        <v>585018</v>
+      </c>
+      <c r="T123">
         <v>0.18</v>
       </c>
-      <c r="R123">
+      <c r="U123">
         <v>-1.32</v>
       </c>
-      <c r="S123" t="s">
-        <v>9</v>
-      </c>
-      <c r="T123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V123" t="s">
+        <v>9</v>
+      </c>
+      <c r="W123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2100313597</v>
       </c>
@@ -9069,19 +9454,22 @@
         <v>159</v>
       </c>
       <c r="Q124">
+        <v>585018</v>
+      </c>
+      <c r="T124">
         <v>0.18</v>
       </c>
-      <c r="R124">
+      <c r="U124">
         <v>8.4</v>
       </c>
-      <c r="S124" t="s">
-        <v>9</v>
-      </c>
-      <c r="T124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V124" t="s">
+        <v>9</v>
+      </c>
+      <c r="W124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2100371606</v>
       </c>
@@ -9131,19 +9519,22 @@
         <v>163</v>
       </c>
       <c r="Q125">
+        <v>690287</v>
+      </c>
+      <c r="T125">
         <v>0.18</v>
       </c>
-      <c r="R125">
+      <c r="U125">
         <v>-14.81</v>
       </c>
-      <c r="S125" t="s">
-        <v>9</v>
-      </c>
-      <c r="T125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V125" t="s">
+        <v>9</v>
+      </c>
+      <c r="W125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2100361226</v>
       </c>
@@ -9193,19 +9584,22 @@
         <v>165</v>
       </c>
       <c r="Q126">
+        <v>690698</v>
+      </c>
+      <c r="T126">
         <v>0.18</v>
       </c>
-      <c r="R126">
+      <c r="U126">
         <v>730.08</v>
       </c>
-      <c r="S126" t="s">
-        <v>9</v>
-      </c>
-      <c r="T126" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V126" t="s">
+        <v>9</v>
+      </c>
+      <c r="W126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>63</v>
       </c>
@@ -9255,19 +9649,22 @@
         <v>65</v>
       </c>
       <c r="Q127">
+        <v>690193</v>
+      </c>
+      <c r="T127">
         <v>0.18</v>
       </c>
-      <c r="R127">
+      <c r="U127">
         <v>60.51</v>
       </c>
-      <c r="S127" t="s">
-        <v>9</v>
-      </c>
-      <c r="T127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V127" t="s">
+        <v>9</v>
+      </c>
+      <c r="W127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2100346112</v>
       </c>
@@ -9317,19 +9714,22 @@
         <v>167</v>
       </c>
       <c r="Q128">
+        <v>615123</v>
+      </c>
+      <c r="T128">
         <v>0.18</v>
       </c>
-      <c r="R128">
+      <c r="U128">
         <v>7.29</v>
       </c>
-      <c r="S128" t="s">
-        <v>9</v>
-      </c>
-      <c r="T128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V128" t="s">
+        <v>9</v>
+      </c>
+      <c r="W128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>93</v>
       </c>
@@ -9379,19 +9779,22 @@
         <v>169</v>
       </c>
       <c r="Q129">
+        <v>519575</v>
+      </c>
+      <c r="T129">
         <v>0.18</v>
       </c>
-      <c r="R129">
+      <c r="U129">
         <v>-3.2</v>
       </c>
-      <c r="S129" t="s">
-        <v>9</v>
-      </c>
-      <c r="T129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V129" t="s">
+        <v>9</v>
+      </c>
+      <c r="W129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2100346112</v>
       </c>
@@ -9441,19 +9844,22 @@
         <v>171</v>
       </c>
       <c r="Q130">
+        <v>615123</v>
+      </c>
+      <c r="T130">
         <v>0.18</v>
       </c>
-      <c r="R130">
+      <c r="U130">
         <v>41.49</v>
       </c>
-      <c r="S130" t="s">
-        <v>9</v>
-      </c>
-      <c r="T130" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V130" t="s">
+        <v>9</v>
+      </c>
+      <c r="W130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2100502129</v>
       </c>
@@ -9503,19 +9909,22 @@
         <v>173</v>
       </c>
       <c r="Q131">
+        <v>573168</v>
+      </c>
+      <c r="T131">
         <v>0.18</v>
       </c>
-      <c r="R131">
+      <c r="U131">
         <v>17.07</v>
       </c>
-      <c r="S131" t="s">
-        <v>9</v>
-      </c>
-      <c r="T131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V131" t="s">
+        <v>9</v>
+      </c>
+      <c r="W131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>66</v>
       </c>
@@ -9565,19 +9974,22 @@
         <v>68</v>
       </c>
       <c r="Q132">
+        <v>519575</v>
+      </c>
+      <c r="T132">
         <v>0.18</v>
       </c>
-      <c r="R132">
+      <c r="U132">
         <v>20.170000000000002</v>
       </c>
-      <c r="S132" t="s">
-        <v>9</v>
-      </c>
-      <c r="T132" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V132" t="s">
+        <v>9</v>
+      </c>
+      <c r="W132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -9627,19 +10039,22 @@
         <v>175</v>
       </c>
       <c r="Q133">
+        <v>690290</v>
+      </c>
+      <c r="T133">
         <v>0.15</v>
       </c>
-      <c r="R133">
+      <c r="U133">
         <v>-6.31</v>
       </c>
-      <c r="S133" t="s">
-        <v>9</v>
-      </c>
-      <c r="T133" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V133" t="s">
+        <v>9</v>
+      </c>
+      <c r="W133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>69</v>
       </c>
@@ -9689,19 +10104,22 @@
         <v>71</v>
       </c>
       <c r="Q134">
+        <v>651018</v>
+      </c>
+      <c r="T134">
         <v>0.18</v>
       </c>
-      <c r="R134">
+      <c r="U134">
         <v>87.86</v>
       </c>
-      <c r="S134" t="s">
-        <v>9</v>
-      </c>
-      <c r="T134" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V134" t="s">
+        <v>9</v>
+      </c>
+      <c r="W134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -9751,19 +10169,22 @@
         <v>74</v>
       </c>
       <c r="Q135">
+        <v>572208</v>
+      </c>
+      <c r="T135">
         <v>0.18</v>
       </c>
-      <c r="R135">
+      <c r="U135">
         <v>16.559999999999999</v>
       </c>
-      <c r="S135" t="s">
-        <v>9</v>
-      </c>
-      <c r="T135" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V135" t="s">
+        <v>9</v>
+      </c>
+      <c r="W135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -9813,30 +10234,33 @@
         <v>177</v>
       </c>
       <c r="Q136">
+        <v>572208</v>
+      </c>
+      <c r="T136">
         <v>0.18</v>
       </c>
-      <c r="R136">
+      <c r="U136">
         <v>-6.43</v>
       </c>
-      <c r="S136" t="s">
-        <v>9</v>
-      </c>
-      <c r="T136" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>63</v>
+      <c r="V136" t="s">
+        <v>9</v>
+      </c>
+      <c r="W136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2100374205</v>
       </c>
       <c r="B137">
-        <v>690193</v>
+        <v>631282</v>
       </c>
       <c r="C137" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D137" t="s">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -9848,57 +10272,60 @@
         <v>4</v>
       </c>
       <c r="H137" s="1">
-        <v>45073</v>
+        <v>45072</v>
       </c>
       <c r="I137" s="1">
-        <v>44927</v>
+        <v>44692</v>
       </c>
       <c r="J137" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K137" t="s">
         <v>6</v>
       </c>
       <c r="L137">
-        <v>-253.49</v>
+        <v>3.07</v>
       </c>
       <c r="M137">
-        <v>-273.77</v>
+        <v>3.32</v>
       </c>
       <c r="N137">
-        <v>-253.49</v>
+        <v>3.07</v>
       </c>
       <c r="O137" t="s">
         <v>7</v>
       </c>
       <c r="P137" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q137">
+        <v>631282</v>
+      </c>
+      <c r="T137">
         <v>0.18</v>
       </c>
-      <c r="R137">
-        <v>-45.63</v>
-      </c>
-      <c r="S137" t="s">
-        <v>45</v>
-      </c>
-      <c r="T137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>2100374205</v>
+      <c r="U137">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V137" t="s">
+        <v>9</v>
+      </c>
+      <c r="W137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>63</v>
       </c>
       <c r="B138">
-        <v>631282</v>
+        <v>690193</v>
       </c>
       <c r="C138" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D138" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -9910,46 +10337,49 @@
         <v>4</v>
       </c>
       <c r="H138" s="1">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="I138" s="1">
-        <v>44692</v>
+        <v>44927</v>
       </c>
       <c r="J138" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="K138" t="s">
         <v>6</v>
       </c>
       <c r="L138">
-        <v>3.07</v>
+        <v>-253.49</v>
       </c>
       <c r="M138">
-        <v>3.32</v>
+        <v>-273.77</v>
       </c>
       <c r="N138">
-        <v>3.07</v>
+        <v>-253.49</v>
       </c>
       <c r="O138" t="s">
         <v>7</v>
       </c>
       <c r="P138" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q138">
+        <v>690193</v>
+      </c>
+      <c r="T138">
         <v>0.18</v>
       </c>
-      <c r="R138">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="S138" t="s">
-        <v>9</v>
-      </c>
-      <c r="T138" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U138">
+        <v>-45.63</v>
+      </c>
+      <c r="V138" t="s">
+        <v>45</v>
+      </c>
+      <c r="W138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>75</v>
       </c>
@@ -9999,19 +10429,22 @@
         <v>77</v>
       </c>
       <c r="Q139">
+        <v>635919</v>
+      </c>
+      <c r="T139">
         <v>0.18</v>
       </c>
-      <c r="R139">
+      <c r="U139">
         <v>60.51</v>
       </c>
-      <c r="S139" t="s">
-        <v>9</v>
-      </c>
-      <c r="T139" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V139" t="s">
+        <v>9</v>
+      </c>
+      <c r="W139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2100492842</v>
       </c>
@@ -10061,19 +10494,22 @@
         <v>183</v>
       </c>
       <c r="Q140">
+        <v>572460</v>
+      </c>
+      <c r="T140">
         <v>0.18</v>
       </c>
-      <c r="R140">
+      <c r="U140">
         <v>-59.95</v>
       </c>
-      <c r="S140" t="s">
+      <c r="V140" t="s">
         <v>45</v>
       </c>
-      <c r="T140" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>57</v>
       </c>
@@ -10123,19 +10559,22 @@
         <v>185</v>
       </c>
       <c r="Q141">
+        <v>691011</v>
+      </c>
+      <c r="T141">
         <v>0.18</v>
       </c>
-      <c r="R141">
+      <c r="U141">
         <v>-129.6</v>
       </c>
-      <c r="S141" t="s">
-        <v>9</v>
-      </c>
-      <c r="T141" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V141" t="s">
+        <v>9</v>
+      </c>
+      <c r="W141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2100504669</v>
       </c>
@@ -10185,19 +10624,22 @@
         <v>278</v>
       </c>
       <c r="Q142">
+        <v>517632</v>
+      </c>
+      <c r="T142">
         <v>0.1</v>
       </c>
-      <c r="R142">
+      <c r="U142">
         <v>36.200000000000003</v>
       </c>
-      <c r="S142" t="s">
-        <v>9</v>
-      </c>
-      <c r="T142" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V142" t="s">
+        <v>9</v>
+      </c>
+      <c r="W142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2100504669</v>
       </c>
@@ -10247,19 +10689,22 @@
         <v>278</v>
       </c>
       <c r="Q143">
+        <v>517632</v>
+      </c>
+      <c r="T143">
         <v>0.1</v>
       </c>
-      <c r="R143">
+      <c r="U143">
         <v>47.5</v>
       </c>
-      <c r="S143" t="s">
-        <v>9</v>
-      </c>
-      <c r="T143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V143" t="s">
+        <v>9</v>
+      </c>
+      <c r="W143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2100504669</v>
       </c>
@@ -10309,19 +10754,22 @@
         <v>278</v>
       </c>
       <c r="Q144">
+        <v>517632</v>
+      </c>
+      <c r="T144">
         <v>0.1</v>
       </c>
-      <c r="R144">
+      <c r="U144">
         <v>106.3</v>
       </c>
-      <c r="S144" t="s">
-        <v>9</v>
-      </c>
-      <c r="T144" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V144" t="s">
+        <v>9</v>
+      </c>
+      <c r="W144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2100504669</v>
       </c>
@@ -10371,19 +10819,22 @@
         <v>278</v>
       </c>
       <c r="Q145">
+        <v>517632</v>
+      </c>
+      <c r="T145">
         <v>0.1</v>
       </c>
-      <c r="R145">
+      <c r="U145">
         <v>110</v>
       </c>
-      <c r="S145" t="s">
-        <v>9</v>
-      </c>
-      <c r="T145" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V145" t="s">
+        <v>9</v>
+      </c>
+      <c r="W145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>78</v>
       </c>
@@ -10433,19 +10884,22 @@
         <v>80</v>
       </c>
       <c r="Q146">
+        <v>519740</v>
+      </c>
+      <c r="T146">
         <v>0.18</v>
       </c>
-      <c r="R146">
+      <c r="U146">
         <v>20.170000000000002</v>
       </c>
-      <c r="S146" t="s">
-        <v>9</v>
-      </c>
-      <c r="T146" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V146" t="s">
+        <v>9</v>
+      </c>
+      <c r="W146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2000012557</v>
       </c>
@@ -10495,19 +10949,22 @@
         <v>190</v>
       </c>
       <c r="Q147">
+        <v>573812</v>
+      </c>
+      <c r="T147">
         <v>0.2</v>
       </c>
-      <c r="R147">
+      <c r="U147">
         <v>-46</v>
       </c>
-      <c r="S147" t="s">
-        <v>9</v>
-      </c>
-      <c r="T147" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V147" t="s">
+        <v>9</v>
+      </c>
+      <c r="W147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -10557,19 +11014,22 @@
         <v>192</v>
       </c>
       <c r="Q148">
+        <v>572651</v>
+      </c>
+      <c r="T148">
         <v>0.18</v>
       </c>
-      <c r="R148">
+      <c r="U148">
         <v>-5.72</v>
       </c>
-      <c r="S148" t="s">
-        <v>9</v>
-      </c>
-      <c r="T148" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V148" t="s">
+        <v>9</v>
+      </c>
+      <c r="W148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>69</v>
       </c>
@@ -10619,19 +11079,22 @@
         <v>194</v>
       </c>
       <c r="Q149">
+        <v>651018</v>
+      </c>
+      <c r="T149">
         <v>0.18</v>
       </c>
-      <c r="R149">
+      <c r="U149">
         <v>34.33</v>
       </c>
-      <c r="S149" t="s">
-        <v>9</v>
-      </c>
-      <c r="T149" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V149" t="s">
+        <v>9</v>
+      </c>
+      <c r="W149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>66</v>
       </c>
@@ -10681,19 +11144,22 @@
         <v>196</v>
       </c>
       <c r="Q150">
+        <v>519575</v>
+      </c>
+      <c r="T150">
         <v>0.18</v>
       </c>
-      <c r="R150">
+      <c r="U150">
         <v>15.54</v>
       </c>
-      <c r="S150" t="s">
-        <v>9</v>
-      </c>
-      <c r="T150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V150" t="s">
+        <v>9</v>
+      </c>
+      <c r="W150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>81</v>
       </c>
@@ -10743,19 +11209,22 @@
         <v>84</v>
       </c>
       <c r="Q151">
+        <v>636448</v>
+      </c>
+      <c r="T151">
         <v>0.1</v>
       </c>
-      <c r="R151">
+      <c r="U151">
         <v>71.5</v>
       </c>
-      <c r="S151" t="s">
-        <v>9</v>
-      </c>
-      <c r="T151" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V151" t="s">
+        <v>9</v>
+      </c>
+      <c r="W151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>81</v>
       </c>
@@ -10805,19 +11274,22 @@
         <v>84</v>
       </c>
       <c r="Q152">
+        <v>636448</v>
+      </c>
+      <c r="T152">
         <v>0.1</v>
       </c>
-      <c r="R152">
+      <c r="U152">
         <v>71.5</v>
       </c>
-      <c r="S152" t="s">
-        <v>9</v>
-      </c>
-      <c r="T152" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V152" t="s">
+        <v>9</v>
+      </c>
+      <c r="W152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>81</v>
       </c>
@@ -10867,19 +11339,22 @@
         <v>84</v>
       </c>
       <c r="Q153">
+        <v>636448</v>
+      </c>
+      <c r="T153">
         <v>0.1</v>
       </c>
-      <c r="R153">
+      <c r="U153">
         <v>8</v>
       </c>
-      <c r="S153" t="s">
-        <v>9</v>
-      </c>
-      <c r="T153" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V153" t="s">
+        <v>9</v>
+      </c>
+      <c r="W153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>81</v>
       </c>
@@ -10929,19 +11404,22 @@
         <v>84</v>
       </c>
       <c r="Q154">
+        <v>636448</v>
+      </c>
+      <c r="T154">
         <v>0.1</v>
       </c>
-      <c r="R154">
+      <c r="U154">
         <v>9.5</v>
       </c>
-      <c r="S154" t="s">
-        <v>9</v>
-      </c>
-      <c r="T154" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V154" t="s">
+        <v>9</v>
+      </c>
+      <c r="W154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>75</v>
       </c>
@@ -10991,19 +11469,22 @@
         <v>198</v>
       </c>
       <c r="Q155">
+        <v>635919</v>
+      </c>
+      <c r="T155">
         <v>0.18</v>
       </c>
-      <c r="R155">
+      <c r="U155">
         <v>-18.96</v>
       </c>
-      <c r="S155" t="s">
-        <v>9</v>
-      </c>
-      <c r="T155" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V155" t="s">
+        <v>9</v>
+      </c>
+      <c r="W155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>85</v>
       </c>
@@ -11053,19 +11534,22 @@
         <v>87</v>
       </c>
       <c r="Q156">
+        <v>572208</v>
+      </c>
+      <c r="T156">
         <v>0.15</v>
       </c>
-      <c r="R156">
+      <c r="U156">
         <v>52.5</v>
       </c>
-      <c r="S156" t="s">
-        <v>9</v>
-      </c>
-      <c r="T156" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V156" t="s">
+        <v>9</v>
+      </c>
+      <c r="W156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>85</v>
       </c>
@@ -11115,19 +11599,22 @@
         <v>87</v>
       </c>
       <c r="Q157">
+        <v>572208</v>
+      </c>
+      <c r="T157">
         <v>0.15</v>
       </c>
-      <c r="R157">
+      <c r="U157">
         <v>74.7</v>
       </c>
-      <c r="S157" t="s">
-        <v>9</v>
-      </c>
-      <c r="T157" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V157" t="s">
+        <v>9</v>
+      </c>
+      <c r="W157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>85</v>
       </c>
@@ -11177,19 +11664,22 @@
         <v>87</v>
       </c>
       <c r="Q158">
+        <v>572208</v>
+      </c>
+      <c r="T158">
         <v>0.15</v>
       </c>
-      <c r="R158">
+      <c r="U158">
         <v>55.8</v>
       </c>
-      <c r="S158" t="s">
-        <v>9</v>
-      </c>
-      <c r="T158" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V158" t="s">
+        <v>9</v>
+      </c>
+      <c r="W158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>75</v>
       </c>
@@ -11239,19 +11729,22 @@
         <v>200</v>
       </c>
       <c r="Q159">
+        <v>635919</v>
+      </c>
+      <c r="T159">
         <v>0.18</v>
       </c>
-      <c r="R159">
+      <c r="U159">
         <v>-35.380000000000003</v>
       </c>
-      <c r="S159" t="s">
-        <v>9</v>
-      </c>
-      <c r="T159" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V159" t="s">
+        <v>9</v>
+      </c>
+      <c r="W159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>60</v>
       </c>
@@ -11301,19 +11794,22 @@
         <v>202</v>
       </c>
       <c r="Q160">
+        <v>820298</v>
+      </c>
+      <c r="T160">
         <v>0.15</v>
       </c>
-      <c r="R160">
+      <c r="U160">
         <v>-7.05</v>
       </c>
-      <c r="S160" t="s">
-        <v>9</v>
-      </c>
-      <c r="T160" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V160" t="s">
+        <v>9</v>
+      </c>
+      <c r="W160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2000365286</v>
       </c>
@@ -11363,19 +11859,22 @@
         <v>280</v>
       </c>
       <c r="Q161">
+        <v>573864</v>
+      </c>
+      <c r="T161">
         <v>0.15</v>
       </c>
-      <c r="R161">
-        <v>9</v>
-      </c>
-      <c r="S161" t="s">
-        <v>9</v>
-      </c>
-      <c r="T161" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U161">
+        <v>9</v>
+      </c>
+      <c r="V161" t="s">
+        <v>9</v>
+      </c>
+      <c r="W161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>60</v>
       </c>
@@ -11425,19 +11924,22 @@
         <v>204</v>
       </c>
       <c r="Q162">
+        <v>820298</v>
+      </c>
+      <c r="T162">
         <v>0.15</v>
       </c>
-      <c r="R162">
+      <c r="U162">
         <v>-2.99</v>
       </c>
-      <c r="S162" t="s">
-        <v>9</v>
-      </c>
-      <c r="T162" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V162" t="s">
+        <v>9</v>
+      </c>
+      <c r="W162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2000365286</v>
       </c>
@@ -11487,19 +11989,22 @@
         <v>282</v>
       </c>
       <c r="Q163">
+        <v>573864</v>
+      </c>
+      <c r="T163">
         <v>0.15</v>
       </c>
-      <c r="R163">
-        <v>9</v>
-      </c>
-      <c r="S163" t="s">
+      <c r="U163">
+        <v>9</v>
+      </c>
+      <c r="V163" t="s">
         <v>45</v>
       </c>
-      <c r="T163" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2000365286</v>
       </c>
@@ -11549,19 +12054,22 @@
         <v>284</v>
       </c>
       <c r="Q164">
+        <v>573864</v>
+      </c>
+      <c r="T164">
         <v>0.15</v>
       </c>
-      <c r="R164">
-        <v>9</v>
-      </c>
-      <c r="S164" t="s">
-        <v>9</v>
-      </c>
-      <c r="T164" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U164">
+        <v>9</v>
+      </c>
+      <c r="V164" t="s">
+        <v>9</v>
+      </c>
+      <c r="W164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2000365286</v>
       </c>
@@ -11611,19 +12119,22 @@
         <v>284</v>
       </c>
       <c r="Q165">
+        <v>573864</v>
+      </c>
+      <c r="T165">
         <v>0.15</v>
       </c>
-      <c r="R165">
+      <c r="U165">
         <v>-9</v>
       </c>
-      <c r="S165" t="s">
-        <v>9</v>
-      </c>
-      <c r="T165" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V165" t="s">
+        <v>9</v>
+      </c>
+      <c r="W165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2000365286</v>
       </c>
@@ -11673,19 +12184,22 @@
         <v>284</v>
       </c>
       <c r="Q166">
+        <v>573864</v>
+      </c>
+      <c r="T166">
         <v>0.15</v>
       </c>
-      <c r="R166">
+      <c r="U166">
         <v>-9</v>
       </c>
-      <c r="S166" t="s">
-        <v>9</v>
-      </c>
-      <c r="T166" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V166" t="s">
+        <v>9</v>
+      </c>
+      <c r="W166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>88</v>
       </c>
@@ -11735,19 +12249,22 @@
         <v>90</v>
       </c>
       <c r="Q167">
+        <v>603257</v>
+      </c>
+      <c r="T167">
         <v>0.15</v>
       </c>
-      <c r="R167">
+      <c r="U167">
         <v>69.150000000000006</v>
       </c>
-      <c r="S167" t="s">
-        <v>9</v>
-      </c>
-      <c r="T167" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V167" t="s">
+        <v>9</v>
+      </c>
+      <c r="W167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>88</v>
       </c>
@@ -11797,19 +12314,22 @@
         <v>90</v>
       </c>
       <c r="Q168">
+        <v>603257</v>
+      </c>
+      <c r="T168">
         <v>0.15</v>
       </c>
-      <c r="R168">
+      <c r="U168">
         <v>69.150000000000006</v>
       </c>
-      <c r="S168" t="s">
-        <v>9</v>
-      </c>
-      <c r="T168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V168" t="s">
+        <v>9</v>
+      </c>
+      <c r="W168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>88</v>
       </c>
@@ -11859,19 +12379,22 @@
         <v>90</v>
       </c>
       <c r="Q169">
+        <v>603257</v>
+      </c>
+      <c r="T169">
         <v>0.15</v>
       </c>
-      <c r="R169">
+      <c r="U169">
         <v>69.150000000000006</v>
       </c>
-      <c r="S169" t="s">
-        <v>9</v>
-      </c>
-      <c r="T169" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V169" t="s">
+        <v>9</v>
+      </c>
+      <c r="W169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>88</v>
       </c>
@@ -11921,19 +12444,22 @@
         <v>90</v>
       </c>
       <c r="Q170">
+        <v>603257</v>
+      </c>
+      <c r="T170">
         <v>0.15</v>
       </c>
-      <c r="R170">
+      <c r="U170">
         <v>69.150000000000006</v>
       </c>
-      <c r="S170" t="s">
-        <v>9</v>
-      </c>
-      <c r="T170" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V170" t="s">
+        <v>9</v>
+      </c>
+      <c r="W170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2000457814</v>
       </c>
@@ -11983,19 +12509,22 @@
         <v>286</v>
       </c>
       <c r="Q171">
+        <v>537353</v>
+      </c>
+      <c r="T171">
         <v>0.2</v>
       </c>
-      <c r="R171">
+      <c r="U171">
         <v>50</v>
       </c>
-      <c r="S171" t="s">
-        <v>9</v>
-      </c>
-      <c r="T171" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V171" t="s">
+        <v>9</v>
+      </c>
+      <c r="W171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2000457814</v>
       </c>
@@ -12045,19 +12574,22 @@
         <v>206</v>
       </c>
       <c r="Q172">
+        <v>537353</v>
+      </c>
+      <c r="T172">
         <v>0.2</v>
       </c>
-      <c r="R172">
+      <c r="U172">
         <v>20</v>
       </c>
-      <c r="S172" t="s">
-        <v>9</v>
-      </c>
-      <c r="T172" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V172" t="s">
+        <v>9</v>
+      </c>
+      <c r="W172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2000371855</v>
       </c>
@@ -12107,19 +12639,22 @@
         <v>288</v>
       </c>
       <c r="Q173">
+        <v>690177</v>
+      </c>
+      <c r="T173">
         <v>0.25</v>
       </c>
-      <c r="R173">
-        <v>10</v>
-      </c>
-      <c r="S173" t="s">
+      <c r="U173">
+        <v>10</v>
+      </c>
+      <c r="V173" t="s">
         <v>45</v>
       </c>
-      <c r="T173" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2000371855</v>
       </c>
@@ -12169,19 +12704,22 @@
         <v>288</v>
       </c>
       <c r="Q174">
+        <v>690177</v>
+      </c>
+      <c r="T174">
         <v>0.25</v>
       </c>
-      <c r="R174">
-        <v>10</v>
-      </c>
-      <c r="S174" t="s">
+      <c r="U174">
+        <v>10</v>
+      </c>
+      <c r="V174" t="s">
         <v>45</v>
       </c>
-      <c r="T174" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>78</v>
       </c>
@@ -12231,19 +12769,22 @@
         <v>208</v>
       </c>
       <c r="Q175">
+        <v>519740</v>
+      </c>
+      <c r="T175">
         <v>0.18</v>
       </c>
-      <c r="R175">
+      <c r="U175">
         <v>-10.97</v>
       </c>
-      <c r="S175" t="s">
-        <v>9</v>
-      </c>
-      <c r="T175" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V175" t="s">
+        <v>9</v>
+      </c>
+      <c r="W175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2000371855</v>
       </c>
@@ -12293,19 +12834,22 @@
         <v>290</v>
       </c>
       <c r="Q176">
+        <v>690177</v>
+      </c>
+      <c r="T176">
         <v>0.25</v>
       </c>
-      <c r="R176">
-        <v>10</v>
-      </c>
-      <c r="S176" t="s">
+      <c r="U176">
+        <v>10</v>
+      </c>
+      <c r="V176" t="s">
         <v>45</v>
       </c>
-      <c r="T176" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2000371855</v>
       </c>
@@ -12355,19 +12899,22 @@
         <v>290</v>
       </c>
       <c r="Q177">
+        <v>690177</v>
+      </c>
+      <c r="T177">
         <v>0.25</v>
       </c>
-      <c r="R177">
-        <v>10</v>
-      </c>
-      <c r="S177" t="s">
+      <c r="U177">
+        <v>10</v>
+      </c>
+      <c r="V177" t="s">
         <v>45</v>
       </c>
-      <c r="T177" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2000371855</v>
       </c>
@@ -12417,19 +12964,22 @@
         <v>290</v>
       </c>
       <c r="Q178">
+        <v>690177</v>
+      </c>
+      <c r="T178">
         <v>0.25</v>
       </c>
-      <c r="R178">
-        <v>10</v>
-      </c>
-      <c r="S178" t="s">
+      <c r="U178">
+        <v>10</v>
+      </c>
+      <c r="V178" t="s">
         <v>45</v>
       </c>
-      <c r="T178" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="W178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2000012557</v>
       </c>
@@ -12479,19 +13029,22 @@
         <v>292</v>
       </c>
       <c r="Q179">
+        <v>573812</v>
+      </c>
+      <c r="T179">
         <v>0.2</v>
       </c>
-      <c r="R179">
+      <c r="U179">
         <v>46</v>
       </c>
-      <c r="S179" t="s">
-        <v>9</v>
-      </c>
-      <c r="T179" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V179" t="s">
+        <v>9</v>
+      </c>
+      <c r="W179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2100308283</v>
       </c>
@@ -12541,19 +13094,22 @@
         <v>294</v>
       </c>
       <c r="Q180">
+        <v>572651</v>
+      </c>
+      <c r="T180">
         <v>0.18</v>
       </c>
-      <c r="R180">
+      <c r="U180">
         <v>45.42</v>
       </c>
-      <c r="S180" t="s">
-        <v>9</v>
-      </c>
-      <c r="T180" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V180" t="s">
+        <v>9</v>
+      </c>
+      <c r="W180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2100313597</v>
       </c>
@@ -12603,19 +13159,22 @@
         <v>296</v>
       </c>
       <c r="Q181">
+        <v>585018</v>
+      </c>
+      <c r="T181">
         <v>0.18</v>
       </c>
-      <c r="R181">
+      <c r="U181">
         <v>20.170000000000002</v>
       </c>
-      <c r="S181" t="s">
-        <v>9</v>
-      </c>
-      <c r="T181" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V181" t="s">
+        <v>9</v>
+      </c>
+      <c r="W181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2100308283</v>
       </c>
@@ -12665,19 +13224,22 @@
         <v>210</v>
       </c>
       <c r="Q182">
+        <v>572651</v>
+      </c>
+      <c r="T182">
         <v>0.18</v>
       </c>
-      <c r="R182">
+      <c r="U182">
         <v>14.06</v>
       </c>
-      <c r="S182" t="s">
-        <v>9</v>
-      </c>
-      <c r="T182" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V182" t="s">
+        <v>9</v>
+      </c>
+      <c r="W182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -12727,19 +13289,22 @@
         <v>92</v>
       </c>
       <c r="Q183">
+        <v>585018</v>
+      </c>
+      <c r="T183">
         <v>0.18</v>
       </c>
-      <c r="R183">
+      <c r="U183">
         <v>80.680000000000007</v>
       </c>
-      <c r="S183" t="s">
-        <v>9</v>
-      </c>
-      <c r="T183" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V183" t="s">
+        <v>9</v>
+      </c>
+      <c r="W183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2100346112</v>
       </c>
@@ -12789,19 +13354,22 @@
         <v>298</v>
       </c>
       <c r="Q184">
+        <v>615123</v>
+      </c>
+      <c r="T184">
         <v>0.18</v>
       </c>
-      <c r="R184">
+      <c r="U184">
         <v>20.170000000000002</v>
       </c>
-      <c r="S184" t="s">
-        <v>9</v>
-      </c>
-      <c r="T184" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V184" t="s">
+        <v>9</v>
+      </c>
+      <c r="W184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -12851,19 +13419,22 @@
         <v>212</v>
       </c>
       <c r="Q185">
+        <v>585018</v>
+      </c>
+      <c r="T185">
         <v>0.18</v>
       </c>
-      <c r="R185">
+      <c r="U185">
         <v>20.170000000000002</v>
       </c>
-      <c r="S185" t="s">
-        <v>9</v>
-      </c>
-      <c r="T185" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V185" t="s">
+        <v>9</v>
+      </c>
+      <c r="W185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -12913,19 +13484,22 @@
         <v>214</v>
       </c>
       <c r="Q186">
+        <v>585018</v>
+      </c>
+      <c r="T186">
         <v>0.18</v>
       </c>
-      <c r="R186">
+      <c r="U186">
         <v>19.29</v>
       </c>
-      <c r="S186" t="s">
-        <v>9</v>
-      </c>
-      <c r="T186" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V186" t="s">
+        <v>9</v>
+      </c>
+      <c r="W186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>93</v>
       </c>
@@ -12975,19 +13549,22 @@
         <v>95</v>
       </c>
       <c r="Q187">
+        <v>519575</v>
+      </c>
+      <c r="T187">
         <v>0.18</v>
       </c>
-      <c r="R187">
+      <c r="U187">
         <v>60.51</v>
       </c>
-      <c r="S187" t="s">
-        <v>9</v>
-      </c>
-      <c r="T187" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V187" t="s">
+        <v>9</v>
+      </c>
+      <c r="W187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -13037,19 +13614,22 @@
         <v>216</v>
       </c>
       <c r="Q188">
+        <v>585018</v>
+      </c>
+      <c r="T188">
         <v>0.18</v>
       </c>
-      <c r="R188">
+      <c r="U188">
         <v>-18.79</v>
       </c>
-      <c r="S188" t="s">
-        <v>9</v>
-      </c>
-      <c r="T188" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V188" t="s">
+        <v>9</v>
+      </c>
+      <c r="W188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -13099,19 +13679,22 @@
         <v>218</v>
       </c>
       <c r="Q189">
+        <v>585018</v>
+      </c>
+      <c r="T189">
         <v>0.18</v>
       </c>
-      <c r="R189">
+      <c r="U189">
         <v>18.57</v>
       </c>
-      <c r="S189" t="s">
-        <v>9</v>
-      </c>
-      <c r="T189" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V189" t="s">
+        <v>9</v>
+      </c>
+      <c r="W189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2100374205</v>
       </c>
@@ -13161,19 +13744,22 @@
         <v>302</v>
       </c>
       <c r="Q190">
+        <v>631282</v>
+      </c>
+      <c r="T190">
         <v>0.18</v>
       </c>
-      <c r="R190">
+      <c r="U190">
         <v>20.170000000000002</v>
       </c>
-      <c r="S190" t="s">
-        <v>9</v>
-      </c>
-      <c r="T190" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V190" t="s">
+        <v>9</v>
+      </c>
+      <c r="W190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2100371606</v>
       </c>
@@ -13223,19 +13809,22 @@
         <v>300</v>
       </c>
       <c r="Q191">
+        <v>690287</v>
+      </c>
+      <c r="T191">
         <v>0.18</v>
       </c>
-      <c r="R191">
+      <c r="U191">
         <v>40.340000000000003</v>
       </c>
-      <c r="S191" t="s">
-        <v>9</v>
-      </c>
-      <c r="T191" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V191" t="s">
+        <v>9</v>
+      </c>
+      <c r="W191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2100361226</v>
       </c>
@@ -13285,19 +13874,22 @@
         <v>304</v>
       </c>
       <c r="Q192">
+        <v>690698</v>
+      </c>
+      <c r="T192">
         <v>0.18</v>
       </c>
-      <c r="R192">
+      <c r="U192">
         <v>1009.39</v>
       </c>
-      <c r="S192" t="s">
-        <v>9</v>
-      </c>
-      <c r="T192" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V192" t="s">
+        <v>9</v>
+      </c>
+      <c r="W192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2100308283</v>
       </c>
@@ -13347,19 +13939,22 @@
         <v>220</v>
       </c>
       <c r="Q193">
+        <v>572651</v>
+      </c>
+      <c r="T193">
         <v>0.18</v>
       </c>
-      <c r="R193">
+      <c r="U193">
         <v>42.48</v>
       </c>
-      <c r="S193" t="s">
-        <v>9</v>
-      </c>
-      <c r="T193" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V193" t="s">
+        <v>9</v>
+      </c>
+      <c r="W193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2100384149</v>
       </c>
@@ -13409,19 +14004,22 @@
         <v>306</v>
       </c>
       <c r="Q194">
+        <v>537946</v>
+      </c>
+      <c r="T194">
         <v>0.18</v>
       </c>
-      <c r="R194">
+      <c r="U194">
         <v>20.170000000000002</v>
       </c>
-      <c r="S194" t="s">
-        <v>9</v>
-      </c>
-      <c r="T194" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V194" t="s">
+        <v>9</v>
+      </c>
+      <c r="W194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2100384149</v>
       </c>
@@ -13471,19 +14069,25 @@
         <v>307</v>
       </c>
       <c r="Q195">
+        <v>537510</v>
+      </c>
+      <c r="R195" t="s">
+        <v>370</v>
+      </c>
+      <c r="T195">
         <v>0.03</v>
       </c>
-      <c r="R195">
+      <c r="U195">
         <v>3.03</v>
       </c>
-      <c r="S195" t="s">
-        <v>9</v>
-      </c>
-      <c r="T195" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V195" t="s">
+        <v>9</v>
+      </c>
+      <c r="W195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2100384149</v>
       </c>
@@ -13533,19 +14137,25 @@
         <v>308</v>
       </c>
       <c r="Q196">
+        <v>537341</v>
+      </c>
+      <c r="R196" t="s">
+        <v>369</v>
+      </c>
+      <c r="T196">
         <v>0.04</v>
       </c>
-      <c r="R196">
+      <c r="U196">
         <v>4.03</v>
       </c>
-      <c r="S196" t="s">
-        <v>9</v>
-      </c>
-      <c r="T196" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V196" t="s">
+        <v>9</v>
+      </c>
+      <c r="W196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2100393111</v>
       </c>
@@ -13595,19 +14205,22 @@
         <v>310</v>
       </c>
       <c r="Q197">
+        <v>589361</v>
+      </c>
+      <c r="T197">
         <v>0.18</v>
       </c>
-      <c r="R197">
+      <c r="U197">
         <v>20.170000000000002</v>
       </c>
-      <c r="S197" t="s">
-        <v>9</v>
-      </c>
-      <c r="T197" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V197" t="s">
+        <v>9</v>
+      </c>
+      <c r="W197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2000111108</v>
       </c>
@@ -13657,19 +14270,22 @@
         <v>312</v>
       </c>
       <c r="Q198">
+        <v>588695</v>
+      </c>
+      <c r="T198">
         <v>0.2</v>
       </c>
-      <c r="R198">
+      <c r="U198">
         <v>50</v>
       </c>
-      <c r="S198" t="s">
-        <v>9</v>
-      </c>
-      <c r="T198" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V198" t="s">
+        <v>9</v>
+      </c>
+      <c r="W198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>93</v>
       </c>
@@ -13719,19 +14335,22 @@
         <v>222</v>
       </c>
       <c r="Q199">
+        <v>519575</v>
+      </c>
+      <c r="T199">
         <v>0.18</v>
       </c>
-      <c r="R199">
+      <c r="U199">
         <v>15.69</v>
       </c>
-      <c r="S199" t="s">
-        <v>9</v>
-      </c>
-      <c r="T199" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V199" t="s">
+        <v>9</v>
+      </c>
+      <c r="W199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>93</v>
       </c>
@@ -13781,19 +14400,22 @@
         <v>224</v>
       </c>
       <c r="Q200">
+        <v>519575</v>
+      </c>
+      <c r="T200">
         <v>0.18</v>
       </c>
-      <c r="R200">
+      <c r="U200">
         <v>15.47</v>
       </c>
-      <c r="S200" t="s">
-        <v>9</v>
-      </c>
-      <c r="T200" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V200" t="s">
+        <v>9</v>
+      </c>
+      <c r="W200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>231</v>
       </c>
@@ -13843,19 +14465,22 @@
         <v>235</v>
       </c>
       <c r="Q201">
+        <v>651032</v>
+      </c>
+      <c r="T201">
         <v>0.15</v>
       </c>
-      <c r="R201">
+      <c r="U201">
         <v>387</v>
       </c>
-      <c r="S201" t="s">
-        <v>9</v>
-      </c>
-      <c r="T201" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V201" t="s">
+        <v>9</v>
+      </c>
+      <c r="W201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2100627160</v>
       </c>
@@ -13905,19 +14530,22 @@
         <v>36</v>
       </c>
       <c r="Q202">
+        <v>537340</v>
+      </c>
+      <c r="T202">
         <v>0.16</v>
       </c>
-      <c r="R202">
+      <c r="U202">
         <v>67.08</v>
       </c>
-      <c r="S202" t="s">
-        <v>9</v>
-      </c>
-      <c r="T202" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V202" t="s">
+        <v>9</v>
+      </c>
+      <c r="W202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2100627160</v>
       </c>
@@ -13967,19 +14595,22 @@
         <v>34</v>
       </c>
       <c r="Q203">
+        <v>537340</v>
+      </c>
+      <c r="T203">
         <v>0.18</v>
       </c>
-      <c r="R203">
+      <c r="U203">
         <v>74.52</v>
       </c>
-      <c r="S203" t="s">
-        <v>9</v>
-      </c>
-      <c r="T203" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V203" t="s">
+        <v>9</v>
+      </c>
+      <c r="W203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2100588210</v>
       </c>
@@ -14029,19 +14660,22 @@
         <v>335</v>
       </c>
       <c r="Q204">
+        <v>615292</v>
+      </c>
+      <c r="T204">
         <v>0.18</v>
       </c>
-      <c r="R204">
+      <c r="U204">
         <v>13.85</v>
       </c>
-      <c r="S204" t="s">
-        <v>9</v>
-      </c>
-      <c r="T204" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V204" t="s">
+        <v>9</v>
+      </c>
+      <c r="W204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>364</v>
       </c>
@@ -14091,19 +14725,22 @@
         <v>366</v>
       </c>
       <c r="Q205">
+        <v>690672</v>
+      </c>
+      <c r="T205">
         <v>0.12</v>
       </c>
-      <c r="R205">
+      <c r="U205">
         <v>1529.47</v>
       </c>
-      <c r="S205" t="s">
-        <v>9</v>
-      </c>
-      <c r="T205" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V205" t="s">
+        <v>9</v>
+      </c>
+      <c r="W205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>364</v>
       </c>
@@ -14153,19 +14790,22 @@
         <v>366</v>
       </c>
       <c r="Q206">
+        <v>690672</v>
+      </c>
+      <c r="T206">
         <v>0.12</v>
       </c>
-      <c r="R206">
+      <c r="U206">
         <v>580.13</v>
       </c>
-      <c r="S206" t="s">
-        <v>9</v>
-      </c>
-      <c r="T206" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V206" t="s">
+        <v>9</v>
+      </c>
+      <c r="W206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>364</v>
       </c>
@@ -14215,19 +14855,22 @@
         <v>366</v>
       </c>
       <c r="Q207">
+        <v>690672</v>
+      </c>
+      <c r="T207">
         <v>0.12</v>
       </c>
-      <c r="R207">
+      <c r="U207">
         <v>833.3</v>
       </c>
-      <c r="S207" t="s">
-        <v>9</v>
-      </c>
-      <c r="T207" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V207" t="s">
+        <v>9</v>
+      </c>
+      <c r="W207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>364</v>
       </c>
@@ -14277,19 +14920,22 @@
         <v>366</v>
       </c>
       <c r="Q208">
+        <v>690672</v>
+      </c>
+      <c r="T208">
         <v>0.12</v>
       </c>
-      <c r="R208">
+      <c r="U208">
         <v>1503.1</v>
       </c>
-      <c r="S208" t="s">
-        <v>9</v>
-      </c>
-      <c r="T208" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V208" t="s">
+        <v>9</v>
+      </c>
+      <c r="W208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>248</v>
       </c>
@@ -14339,19 +14985,22 @@
         <v>325</v>
       </c>
       <c r="Q209">
+        <v>691011</v>
+      </c>
+      <c r="T209">
         <v>0.18</v>
       </c>
-      <c r="R209">
+      <c r="U209">
         <v>-450</v>
       </c>
-      <c r="S209" t="s">
-        <v>9</v>
-      </c>
-      <c r="T209" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V209" t="s">
+        <v>9</v>
+      </c>
+      <c r="W209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2100630930</v>
       </c>
@@ -14401,19 +15050,22 @@
         <v>230</v>
       </c>
       <c r="Q210">
+        <v>631330</v>
+      </c>
+      <c r="T210">
         <v>0.18</v>
       </c>
-      <c r="R210">
+      <c r="U210">
         <v>46.08</v>
       </c>
-      <c r="S210" t="s">
-        <v>9</v>
-      </c>
-      <c r="T210" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V210" t="s">
+        <v>9</v>
+      </c>
+      <c r="W210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2100493170</v>
       </c>
@@ -14463,19 +15115,22 @@
         <v>333</v>
       </c>
       <c r="Q211">
+        <v>572208</v>
+      </c>
+      <c r="T211">
         <v>0.2</v>
       </c>
-      <c r="R211">
+      <c r="U211">
         <v>-230.55</v>
       </c>
-      <c r="S211" t="s">
-        <v>9</v>
-      </c>
-      <c r="T211" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V211" t="s">
+        <v>9</v>
+      </c>
+      <c r="W211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2100493170</v>
       </c>
@@ -14525,19 +15180,22 @@
         <v>316</v>
       </c>
       <c r="Q212">
+        <v>572208</v>
+      </c>
+      <c r="T212">
         <v>0.2</v>
       </c>
-      <c r="R212">
+      <c r="U212">
         <v>7.4</v>
       </c>
-      <c r="S212" t="s">
-        <v>9</v>
-      </c>
-      <c r="T212" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V212" t="s">
+        <v>9</v>
+      </c>
+      <c r="W212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2100493170</v>
       </c>
@@ -14587,19 +15245,22 @@
         <v>352</v>
       </c>
       <c r="Q213">
+        <v>572208</v>
+      </c>
+      <c r="T213">
         <v>0.2</v>
       </c>
-      <c r="R213">
+      <c r="U213">
         <v>4603</v>
       </c>
-      <c r="S213" t="s">
-        <v>9</v>
-      </c>
-      <c r="T213" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V213" t="s">
+        <v>9</v>
+      </c>
+      <c r="W213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>231</v>
       </c>
@@ -14649,19 +15310,22 @@
         <v>269</v>
       </c>
       <c r="Q214">
+        <v>651032</v>
+      </c>
+      <c r="T214">
         <v>0.1</v>
       </c>
-      <c r="R214">
+      <c r="U214">
         <v>919.6</v>
       </c>
-      <c r="S214" t="s">
-        <v>9</v>
-      </c>
-      <c r="T214" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V214" t="s">
+        <v>9</v>
+      </c>
+      <c r="W214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>238</v>
       </c>
@@ -14711,19 +15375,22 @@
         <v>240</v>
       </c>
       <c r="Q215">
+        <v>614904</v>
+      </c>
+      <c r="T215">
         <v>0.18</v>
       </c>
-      <c r="R215">
+      <c r="U215">
         <v>46.08</v>
       </c>
-      <c r="S215" t="s">
-        <v>9</v>
-      </c>
-      <c r="T215" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V215" t="s">
+        <v>9</v>
+      </c>
+      <c r="W215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2100627160</v>
       </c>
@@ -14773,19 +15440,22 @@
         <v>349</v>
       </c>
       <c r="Q216">
+        <v>537340</v>
+      </c>
+      <c r="T216">
         <v>0.16</v>
       </c>
-      <c r="R216">
+      <c r="U216">
         <v>-61.74</v>
       </c>
-      <c r="S216" t="s">
-        <v>9</v>
-      </c>
-      <c r="T216" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V216" t="s">
+        <v>9</v>
+      </c>
+      <c r="W216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2100627160</v>
       </c>
@@ -14835,19 +15505,22 @@
         <v>350</v>
       </c>
       <c r="Q217">
+        <v>537340</v>
+      </c>
+      <c r="T217">
         <v>0.18</v>
       </c>
-      <c r="R217">
+      <c r="U217">
         <v>-68.61</v>
       </c>
-      <c r="S217" t="s">
-        <v>9</v>
-      </c>
-      <c r="T217" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V217" t="s">
+        <v>9</v>
+      </c>
+      <c r="W217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2100587050</v>
       </c>
@@ -14897,19 +15570,22 @@
         <v>50</v>
       </c>
       <c r="Q218">
+        <v>525608</v>
+      </c>
+      <c r="T218">
         <v>0.18</v>
       </c>
-      <c r="R218">
+      <c r="U218">
         <v>24.84</v>
       </c>
-      <c r="S218" t="s">
-        <v>9</v>
-      </c>
-      <c r="T218" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V218" t="s">
+        <v>9</v>
+      </c>
+      <c r="W218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>321</v>
       </c>
@@ -14959,19 +15635,22 @@
         <v>323</v>
       </c>
       <c r="Q219">
+        <v>642139</v>
+      </c>
+      <c r="T219">
         <v>0.18</v>
       </c>
-      <c r="R219">
+      <c r="U219">
         <v>46.08</v>
       </c>
-      <c r="S219" t="s">
-        <v>9</v>
-      </c>
-      <c r="T219" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V219" t="s">
+        <v>9</v>
+      </c>
+      <c r="W219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2100493170</v>
       </c>
@@ -15021,19 +15700,22 @@
         <v>247</v>
       </c>
       <c r="Q220">
+        <v>572208</v>
+      </c>
+      <c r="T220">
         <v>0.2</v>
       </c>
-      <c r="R220">
+      <c r="U220">
         <v>-9.6199999999999992</v>
       </c>
-      <c r="S220" t="s">
-        <v>9</v>
-      </c>
-      <c r="T220" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V220" t="s">
+        <v>9</v>
+      </c>
+      <c r="W220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -15083,19 +15765,22 @@
         <v>228</v>
       </c>
       <c r="Q221">
+        <v>527130</v>
+      </c>
+      <c r="T221">
         <v>0.18</v>
       </c>
-      <c r="R221">
+      <c r="U221">
         <v>138.24</v>
       </c>
-      <c r="S221" t="s">
-        <v>9</v>
-      </c>
-      <c r="T221" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V221" t="s">
+        <v>9</v>
+      </c>
+      <c r="W221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>248</v>
       </c>
@@ -15145,19 +15830,22 @@
         <v>253</v>
       </c>
       <c r="Q222">
+        <v>691011</v>
+      </c>
+      <c r="T222">
         <v>0.18</v>
       </c>
-      <c r="R222">
+      <c r="U222">
         <v>450</v>
       </c>
-      <c r="S222" t="s">
-        <v>9</v>
-      </c>
-      <c r="T222" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V222" t="s">
+        <v>9</v>
+      </c>
+      <c r="W222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2100630930</v>
       </c>
@@ -15207,19 +15895,22 @@
         <v>341</v>
       </c>
       <c r="Q223">
+        <v>631330</v>
+      </c>
+      <c r="T223">
         <v>0.18</v>
       </c>
-      <c r="R223">
+      <c r="U223">
         <v>15.61</v>
       </c>
-      <c r="S223" t="s">
-        <v>9</v>
-      </c>
-      <c r="T223" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V223" t="s">
+        <v>9</v>
+      </c>
+      <c r="W223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>359</v>
       </c>
@@ -15269,19 +15960,22 @@
         <v>361</v>
       </c>
       <c r="Q224">
+        <v>537213</v>
+      </c>
+      <c r="T224">
         <v>0.15</v>
       </c>
-      <c r="R224">
+      <c r="U224">
         <v>787.5</v>
       </c>
-      <c r="S224" t="s">
-        <v>9</v>
-      </c>
-      <c r="T224" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V224" t="s">
+        <v>9</v>
+      </c>
+      <c r="W224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>359</v>
       </c>
@@ -15331,19 +16025,25 @@
         <v>362</v>
       </c>
       <c r="Q225">
+        <v>537213</v>
+      </c>
+      <c r="R225" t="s">
+        <v>370</v>
+      </c>
+      <c r="T225">
         <v>0.02</v>
       </c>
-      <c r="R225">
+      <c r="U225">
         <v>118.13</v>
       </c>
-      <c r="S225" t="s">
-        <v>9</v>
-      </c>
-      <c r="T225" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V225" t="s">
+        <v>9</v>
+      </c>
+      <c r="W225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>359</v>
       </c>
@@ -15393,19 +16093,25 @@
         <v>363</v>
       </c>
       <c r="Q226">
+        <v>537189</v>
+      </c>
+      <c r="R226" t="s">
+        <v>369</v>
+      </c>
+      <c r="T226">
         <v>0.03</v>
       </c>
-      <c r="R226">
+      <c r="U226">
         <v>157.5</v>
       </c>
-      <c r="S226" t="s">
-        <v>9</v>
-      </c>
-      <c r="T226" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V226" t="s">
+        <v>9</v>
+      </c>
+      <c r="W226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2100649580</v>
       </c>
@@ -15455,19 +16161,22 @@
         <v>337</v>
       </c>
       <c r="Q227">
+        <v>651005</v>
+      </c>
+      <c r="T227">
         <v>0.18</v>
       </c>
-      <c r="R227">
+      <c r="U227">
         <v>46.08</v>
       </c>
-      <c r="S227" t="s">
-        <v>9</v>
-      </c>
-      <c r="T227" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V227" t="s">
+        <v>9</v>
+      </c>
+      <c r="W227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2100493170</v>
       </c>
@@ -15517,19 +16226,22 @@
         <v>343</v>
       </c>
       <c r="Q228">
+        <v>572208</v>
+      </c>
+      <c r="T228">
         <v>0.2</v>
       </c>
-      <c r="R228">
+      <c r="U228">
         <v>216</v>
       </c>
-      <c r="S228" t="s">
-        <v>9</v>
-      </c>
-      <c r="T228" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V228" t="s">
+        <v>9</v>
+      </c>
+      <c r="W228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>248</v>
       </c>
@@ -15579,19 +16291,22 @@
         <v>318</v>
       </c>
       <c r="Q229">
+        <v>691011</v>
+      </c>
+      <c r="T229">
         <v>0.18</v>
       </c>
-      <c r="R229">
+      <c r="U229">
         <v>36</v>
       </c>
-      <c r="S229" t="s">
-        <v>9</v>
-      </c>
-      <c r="T229" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V229" t="s">
+        <v>9</v>
+      </c>
+      <c r="W229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>226</v>
       </c>
@@ -15641,19 +16356,22 @@
         <v>358</v>
       </c>
       <c r="Q230">
+        <v>527130</v>
+      </c>
+      <c r="T230">
         <v>0.18</v>
       </c>
-      <c r="R230">
+      <c r="U230">
         <v>44.44</v>
       </c>
-      <c r="S230" t="s">
-        <v>9</v>
-      </c>
-      <c r="T230" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V230" t="s">
+        <v>9</v>
+      </c>
+      <c r="W230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2100587050</v>
       </c>
@@ -15703,19 +16421,22 @@
         <v>48</v>
       </c>
       <c r="Q231">
+        <v>525608</v>
+      </c>
+      <c r="T231">
         <v>0.18</v>
       </c>
-      <c r="R231">
+      <c r="U231">
         <v>-24.84</v>
       </c>
-      <c r="S231" t="s">
-        <v>9</v>
-      </c>
-      <c r="T231" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V231" t="s">
+        <v>9</v>
+      </c>
+      <c r="W231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2100493170</v>
       </c>
@@ -15765,19 +16486,22 @@
         <v>41</v>
       </c>
       <c r="Q232">
+        <v>572208</v>
+      </c>
+      <c r="T232">
         <v>0.2</v>
       </c>
-      <c r="R232">
+      <c r="U232">
         <v>186.9</v>
       </c>
-      <c r="S232" t="s">
-        <v>9</v>
-      </c>
-      <c r="T232" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V232" t="s">
+        <v>9</v>
+      </c>
+      <c r="W232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>248</v>
       </c>
@@ -15827,19 +16551,22 @@
         <v>251</v>
       </c>
       <c r="Q233">
+        <v>691011</v>
+      </c>
+      <c r="T233">
         <v>0.18</v>
       </c>
-      <c r="R233">
+      <c r="U233">
         <v>-36</v>
       </c>
-      <c r="S233" t="s">
-        <v>9</v>
-      </c>
-      <c r="T233" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="V233" t="s">
+        <v>9</v>
+      </c>
+      <c r="W233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2100649580</v>
       </c>
@@ -15889,15 +16616,18 @@
         <v>314</v>
       </c>
       <c r="Q234">
+        <v>651005</v>
+      </c>
+      <c r="T234">
         <v>0.18</v>
       </c>
-      <c r="R234">
+      <c r="U234">
         <v>-30.97</v>
       </c>
-      <c r="S234" t="s">
-        <v>9</v>
-      </c>
-      <c r="T234" t="s">
+      <c r="V234" t="s">
+        <v>9</v>
+      </c>
+      <c r="W234" t="s">
         <v>10</v>
       </c>
     </row>
@@ -15909,7 +16639,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">16934815-70c5-4b80-851f-e4667e4bab92</TitusGUID>
+  <TitusGUID xmlns="">5b89ce82-a9f1-4b38-b610-67692ce73c12</TitusGUID>
   <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9NYXJpb1RyaWFsIChQcm9mZXNzaW9uYWwgU2VydmljZXMgQVBBQykiLCJwcm9wcyI6W3sibiI6Ik5UVUNDbGFzc2lmaWNhdGlvbiIsInZhbHMiOlt7InZhbHVlIjoiUHVibGljIn1dfV19</TitusMetadata>
 </titus>
 </file>
